--- a/Lab 1/Lab 1.3/RTM.xlsx
+++ b/Lab 1/Lab 1.3/RTM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2BE4996-EC3C-4CD4-A4EE-A61A51FB7DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB906867-077D-4433-89EB-E022FB207293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -189,7 +189,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -414,8 +422,8 @@
   </sheetPr>
   <dimension ref="A1:B1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4539,8 +4547,8 @@
   </sheetPr>
   <dimension ref="A1:AF1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4707,14 +4715,12 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4745,7 +4751,7 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4754,9 +4760,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -4820,7 +4824,7 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4829,14 +4833,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -4896,7 +4902,7 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.2</v>
       </c>
@@ -4908,7 +4914,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -4935,7 +4941,7 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.3</v>
       </c>
@@ -4947,7 +4953,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -4974,7 +4980,7 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -4985,7 +4991,7 @@
       <c r="D11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5013,7 +5019,7 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -5050,7 +5056,7 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4.2</v>
       </c>
@@ -5066,7 +5072,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -5089,7 +5095,7 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4.3</v>
       </c>
@@ -5105,7 +5111,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -5128,7 +5134,7 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -5139,7 +5145,7 @@
       <c r="D15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -5204,7 +5210,7 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5.2</v>
       </c>
@@ -5224,7 +5230,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -5243,7 +5249,7 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5.3</v>
       </c>
@@ -5263,7 +5269,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="4"/>
@@ -5282,7 +5288,7 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -5305,7 +5311,9 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="T19" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
@@ -5319,7 +5327,7 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>7</v>
       </c>
@@ -5393,7 +5401,7 @@
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>8.1</v>
       </c>
@@ -5407,7 +5415,9 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -5430,7 +5440,7 @@
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -5444,7 +5454,9 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -5467,7 +5479,7 @@
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>9</v>
       </c>
@@ -5504,7 +5516,7 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>9.1</v>
       </c>
@@ -5543,7 +5555,7 @@
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -5573,7 +5585,9 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
+      <c r="Y26" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
@@ -5582,7 +5596,7 @@
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6804,7 +6818,7 @@
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
@@ -6838,7 +6852,7 @@
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
@@ -6872,7 +6886,7 @@
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -6905,7 +6919,7 @@
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -6938,7 +6952,7 @@
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -6971,7 +6985,7 @@
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -7004,7 +7018,7 @@
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
     </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -7037,7 +7051,7 @@
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
     </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -7070,7 +7084,7 @@
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
     </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -7103,7 +7117,7 @@
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
     </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -7136,7 +7150,7 @@
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -7169,7 +7183,7 @@
       <c r="AE73" s="4"/>
       <c r="AF73" s="4"/>
     </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -7202,7 +7216,7 @@
       <c r="AE74" s="4"/>
       <c r="AF74" s="4"/>
     </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -7235,7 +7249,7 @@
       <c r="AE75" s="4"/>
       <c r="AF75" s="4"/>
     </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -7268,7 +7282,7 @@
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -7301,7 +7315,7 @@
       <c r="AE77" s="4"/>
       <c r="AF77" s="4"/>
     </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -7334,7 +7348,7 @@
       <c r="AE78" s="4"/>
       <c r="AF78" s="4"/>
     </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -7367,7 +7381,7 @@
       <c r="AE79" s="4"/>
       <c r="AF79" s="4"/>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -7400,7 +7414,7 @@
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
     </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -7433,7 +7447,7 @@
       <c r="AE81" s="4"/>
       <c r="AF81" s="4"/>
     </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -7466,7 +7480,7 @@
       <c r="AE82" s="4"/>
       <c r="AF82" s="4"/>
     </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -7499,7 +7513,7 @@
       <c r="AE83" s="4"/>
       <c r="AF83" s="4"/>
     </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -7532,7 +7546,7 @@
       <c r="AE84" s="4"/>
       <c r="AF84" s="4"/>
     </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -7565,7 +7579,7 @@
       <c r="AE85" s="4"/>
       <c r="AF85" s="4"/>
     </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -7598,7 +7612,7 @@
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
     </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -7631,7 +7645,7 @@
       <c r="AE87" s="4"/>
       <c r="AF87" s="4"/>
     </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -7664,7 +7678,7 @@
       <c r="AE88" s="4"/>
       <c r="AF88" s="4"/>
     </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -7697,7 +7711,7 @@
       <c r="AE89" s="4"/>
       <c r="AF89" s="4"/>
     </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -7730,7 +7744,7 @@
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
     </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -7763,7 +7777,7 @@
       <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
     </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -7796,7 +7810,7 @@
       <c r="AE92" s="4"/>
       <c r="AF92" s="4"/>
     </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -7829,7 +7843,7 @@
       <c r="AE93" s="4"/>
       <c r="AF93" s="4"/>
     </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -7862,7 +7876,7 @@
       <c r="AE94" s="4"/>
       <c r="AF94" s="4"/>
     </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -7895,7 +7909,7 @@
       <c r="AE95" s="4"/>
       <c r="AF95" s="4"/>
     </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -7928,7 +7942,7 @@
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
     </row>
-    <row r="97" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -7961,7 +7975,7 @@
       <c r="AE97" s="4"/>
       <c r="AF97" s="4"/>
     </row>
-    <row r="98" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -7994,7 +8008,7 @@
       <c r="AE98" s="4"/>
       <c r="AF98" s="4"/>
     </row>
-    <row r="99" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -8027,7 +8041,7 @@
       <c r="AE99" s="4"/>
       <c r="AF99" s="4"/>
     </row>
-    <row r="100" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -8060,7 +8074,7 @@
       <c r="AE100" s="4"/>
       <c r="AF100" s="4"/>
     </row>
-    <row r="101" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -8093,7 +8107,7 @@
       <c r="AE101" s="4"/>
       <c r="AF101" s="4"/>
     </row>
-    <row r="102" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -8126,7 +8140,7 @@
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
     </row>
-    <row r="103" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -8159,7 +8173,7 @@
       <c r="AE103" s="4"/>
       <c r="AF103" s="4"/>
     </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -8192,7 +8206,7 @@
       <c r="AE104" s="4"/>
       <c r="AF104" s="4"/>
     </row>
-    <row r="105" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -8225,7 +8239,7 @@
       <c r="AE105" s="4"/>
       <c r="AF105" s="4"/>
     </row>
-    <row r="106" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -8258,7 +8272,7 @@
       <c r="AE106" s="4"/>
       <c r="AF106" s="4"/>
     </row>
-    <row r="107" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -8291,7 +8305,7 @@
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>
     </row>
-    <row r="108" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -8324,7 +8338,7 @@
       <c r="AE108" s="4"/>
       <c r="AF108" s="4"/>
     </row>
-    <row r="109" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -8357,7 +8371,7 @@
       <c r="AE109" s="4"/>
       <c r="AF109" s="4"/>
     </row>
-    <row r="110" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -8390,7 +8404,7 @@
       <c r="AE110" s="4"/>
       <c r="AF110" s="4"/>
     </row>
-    <row r="111" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -8423,7 +8437,7 @@
       <c r="AE111" s="4"/>
       <c r="AF111" s="4"/>
     </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -8456,7 +8470,7 @@
       <c r="AE112" s="4"/>
       <c r="AF112" s="4"/>
     </row>
-    <row r="113" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -8489,7 +8503,7 @@
       <c r="AE113" s="4"/>
       <c r="AF113" s="4"/>
     </row>
-    <row r="114" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -8522,7 +8536,7 @@
       <c r="AE114" s="4"/>
       <c r="AF114" s="4"/>
     </row>
-    <row r="115" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -8555,7 +8569,7 @@
       <c r="AE115" s="4"/>
       <c r="AF115" s="4"/>
     </row>
-    <row r="116" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -8588,7 +8602,7 @@
       <c r="AE116" s="4"/>
       <c r="AF116" s="4"/>
     </row>
-    <row r="117" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -8621,7 +8635,7 @@
       <c r="AE117" s="4"/>
       <c r="AF117" s="4"/>
     </row>
-    <row r="118" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -8654,7 +8668,7 @@
       <c r="AE118" s="4"/>
       <c r="AF118" s="4"/>
     </row>
-    <row r="119" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -8687,7 +8701,7 @@
       <c r="AE119" s="4"/>
       <c r="AF119" s="4"/>
     </row>
-    <row r="120" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -8720,7 +8734,7 @@
       <c r="AE120" s="4"/>
       <c r="AF120" s="4"/>
     </row>
-    <row r="121" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -8753,7 +8767,7 @@
       <c r="AE121" s="4"/>
       <c r="AF121" s="4"/>
     </row>
-    <row r="122" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -8786,7 +8800,7 @@
       <c r="AE122" s="4"/>
       <c r="AF122" s="4"/>
     </row>
-    <row r="123" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -8819,7 +8833,7 @@
       <c r="AE123" s="4"/>
       <c r="AF123" s="4"/>
     </row>
-    <row r="124" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -8852,7 +8866,7 @@
       <c r="AE124" s="4"/>
       <c r="AF124" s="4"/>
     </row>
-    <row r="125" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -8885,7 +8899,7 @@
       <c r="AE125" s="4"/>
       <c r="AF125" s="4"/>
     </row>
-    <row r="126" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -8918,7 +8932,7 @@
       <c r="AE126" s="4"/>
       <c r="AF126" s="4"/>
     </row>
-    <row r="127" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -8951,7 +8965,7 @@
       <c r="AE127" s="4"/>
       <c r="AF127" s="4"/>
     </row>
-    <row r="128" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -8984,7 +8998,7 @@
       <c r="AE128" s="4"/>
       <c r="AF128" s="4"/>
     </row>
-    <row r="129" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -9017,7 +9031,7 @@
       <c r="AE129" s="4"/>
       <c r="AF129" s="4"/>
     </row>
-    <row r="130" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -9050,7 +9064,7 @@
       <c r="AE130" s="4"/>
       <c r="AF130" s="4"/>
     </row>
-    <row r="131" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -9083,7 +9097,7 @@
       <c r="AE131" s="4"/>
       <c r="AF131" s="4"/>
     </row>
-    <row r="132" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -9116,7 +9130,7 @@
       <c r="AE132" s="4"/>
       <c r="AF132" s="4"/>
     </row>
-    <row r="133" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -9149,7 +9163,7 @@
       <c r="AE133" s="4"/>
       <c r="AF133" s="4"/>
     </row>
-    <row r="134" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -9182,7 +9196,7 @@
       <c r="AE134" s="4"/>
       <c r="AF134" s="4"/>
     </row>
-    <row r="135" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -9215,7 +9229,7 @@
       <c r="AE135" s="4"/>
       <c r="AF135" s="4"/>
     </row>
-    <row r="136" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -9248,7 +9262,7 @@
       <c r="AE136" s="4"/>
       <c r="AF136" s="4"/>
     </row>
-    <row r="137" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -9281,7 +9295,7 @@
       <c r="AE137" s="4"/>
       <c r="AF137" s="4"/>
     </row>
-    <row r="138" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -9314,7 +9328,7 @@
       <c r="AE138" s="4"/>
       <c r="AF138" s="4"/>
     </row>
-    <row r="139" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -9347,7 +9361,7 @@
       <c r="AE139" s="4"/>
       <c r="AF139" s="4"/>
     </row>
-    <row r="140" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -9380,7 +9394,7 @@
       <c r="AE140" s="4"/>
       <c r="AF140" s="4"/>
     </row>
-    <row r="141" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -9413,7 +9427,7 @@
       <c r="AE141" s="4"/>
       <c r="AF141" s="4"/>
     </row>
-    <row r="142" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -9446,7 +9460,7 @@
       <c r="AE142" s="4"/>
       <c r="AF142" s="4"/>
     </row>
-    <row r="143" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -9479,7 +9493,7 @@
       <c r="AE143" s="4"/>
       <c r="AF143" s="4"/>
     </row>
-    <row r="144" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -9512,7 +9526,7 @@
       <c r="AE144" s="4"/>
       <c r="AF144" s="4"/>
     </row>
-    <row r="145" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -9545,7 +9559,7 @@
       <c r="AE145" s="4"/>
       <c r="AF145" s="4"/>
     </row>
-    <row r="146" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -9578,7 +9592,7 @@
       <c r="AE146" s="4"/>
       <c r="AF146" s="4"/>
     </row>
-    <row r="147" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -9611,7 +9625,7 @@
       <c r="AE147" s="4"/>
       <c r="AF147" s="4"/>
     </row>
-    <row r="148" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -9644,7 +9658,7 @@
       <c r="AE148" s="4"/>
       <c r="AF148" s="4"/>
     </row>
-    <row r="149" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -9677,7 +9691,7 @@
       <c r="AE149" s="4"/>
       <c r="AF149" s="4"/>
     </row>
-    <row r="150" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -9710,7 +9724,7 @@
       <c r="AE150" s="4"/>
       <c r="AF150" s="4"/>
     </row>
-    <row r="151" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -9743,7 +9757,7 @@
       <c r="AE151" s="4"/>
       <c r="AF151" s="4"/>
     </row>
-    <row r="152" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -9776,7 +9790,7 @@
       <c r="AE152" s="4"/>
       <c r="AF152" s="4"/>
     </row>
-    <row r="153" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -9809,7 +9823,7 @@
       <c r="AE153" s="4"/>
       <c r="AF153" s="4"/>
     </row>
-    <row r="154" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -9842,7 +9856,7 @@
       <c r="AE154" s="4"/>
       <c r="AF154" s="4"/>
     </row>
-    <row r="155" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -9875,7 +9889,7 @@
       <c r="AE155" s="4"/>
       <c r="AF155" s="4"/>
     </row>
-    <row r="156" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -9908,7 +9922,7 @@
       <c r="AE156" s="4"/>
       <c r="AF156" s="4"/>
     </row>
-    <row r="157" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -9941,7 +9955,7 @@
       <c r="AE157" s="4"/>
       <c r="AF157" s="4"/>
     </row>
-    <row r="158" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -9974,7 +9988,7 @@
       <c r="AE158" s="4"/>
       <c r="AF158" s="4"/>
     </row>
-    <row r="159" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -10007,7 +10021,7 @@
       <c r="AE159" s="4"/>
       <c r="AF159" s="4"/>
     </row>
-    <row r="160" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -10040,7 +10054,7 @@
       <c r="AE160" s="4"/>
       <c r="AF160" s="4"/>
     </row>
-    <row r="161" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -10073,7 +10087,7 @@
       <c r="AE161" s="4"/>
       <c r="AF161" s="4"/>
     </row>
-    <row r="162" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -10106,7 +10120,7 @@
       <c r="AE162" s="4"/>
       <c r="AF162" s="4"/>
     </row>
-    <row r="163" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -10139,7 +10153,7 @@
       <c r="AE163" s="4"/>
       <c r="AF163" s="4"/>
     </row>
-    <row r="164" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -10172,7 +10186,7 @@
       <c r="AE164" s="4"/>
       <c r="AF164" s="4"/>
     </row>
-    <row r="165" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -10205,7 +10219,7 @@
       <c r="AE165" s="4"/>
       <c r="AF165" s="4"/>
     </row>
-    <row r="166" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -10238,7 +10252,7 @@
       <c r="AE166" s="4"/>
       <c r="AF166" s="4"/>
     </row>
-    <row r="167" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -10271,7 +10285,7 @@
       <c r="AE167" s="4"/>
       <c r="AF167" s="4"/>
     </row>
-    <row r="168" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -10304,7 +10318,7 @@
       <c r="AE168" s="4"/>
       <c r="AF168" s="4"/>
     </row>
-    <row r="169" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -10337,7 +10351,7 @@
       <c r="AE169" s="4"/>
       <c r="AF169" s="4"/>
     </row>
-    <row r="170" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -10370,7 +10384,7 @@
       <c r="AE170" s="4"/>
       <c r="AF170" s="4"/>
     </row>
-    <row r="171" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -10403,7 +10417,7 @@
       <c r="AE171" s="4"/>
       <c r="AF171" s="4"/>
     </row>
-    <row r="172" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -10436,7 +10450,7 @@
       <c r="AE172" s="4"/>
       <c r="AF172" s="4"/>
     </row>
-    <row r="173" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -10469,7 +10483,7 @@
       <c r="AE173" s="4"/>
       <c r="AF173" s="4"/>
     </row>
-    <row r="174" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -10502,7 +10516,7 @@
       <c r="AE174" s="4"/>
       <c r="AF174" s="4"/>
     </row>
-    <row r="175" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -10535,7 +10549,7 @@
       <c r="AE175" s="4"/>
       <c r="AF175" s="4"/>
     </row>
-    <row r="176" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -10568,7 +10582,7 @@
       <c r="AE176" s="4"/>
       <c r="AF176" s="4"/>
     </row>
-    <row r="177" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -10601,7 +10615,7 @@
       <c r="AE177" s="4"/>
       <c r="AF177" s="4"/>
     </row>
-    <row r="178" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -10634,7 +10648,7 @@
       <c r="AE178" s="4"/>
       <c r="AF178" s="4"/>
     </row>
-    <row r="179" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -10667,7 +10681,7 @@
       <c r="AE179" s="4"/>
       <c r="AF179" s="4"/>
     </row>
-    <row r="180" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -10700,7 +10714,7 @@
       <c r="AE180" s="4"/>
       <c r="AF180" s="4"/>
     </row>
-    <row r="181" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -10733,7 +10747,7 @@
       <c r="AE181" s="4"/>
       <c r="AF181" s="4"/>
     </row>
-    <row r="182" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -10766,7 +10780,7 @@
       <c r="AE182" s="4"/>
       <c r="AF182" s="4"/>
     </row>
-    <row r="183" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -10799,7 +10813,7 @@
       <c r="AE183" s="4"/>
       <c r="AF183" s="4"/>
     </row>
-    <row r="184" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -10832,7 +10846,7 @@
       <c r="AE184" s="4"/>
       <c r="AF184" s="4"/>
     </row>
-    <row r="185" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -10865,7 +10879,7 @@
       <c r="AE185" s="4"/>
       <c r="AF185" s="4"/>
     </row>
-    <row r="186" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -10898,7 +10912,7 @@
       <c r="AE186" s="4"/>
       <c r="AF186" s="4"/>
     </row>
-    <row r="187" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -10931,7 +10945,7 @@
       <c r="AE187" s="4"/>
       <c r="AF187" s="4"/>
     </row>
-    <row r="188" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -10964,7 +10978,7 @@
       <c r="AE188" s="4"/>
       <c r="AF188" s="4"/>
     </row>
-    <row r="189" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -10997,7 +11011,7 @@
       <c r="AE189" s="4"/>
       <c r="AF189" s="4"/>
     </row>
-    <row r="190" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -11030,7 +11044,7 @@
       <c r="AE190" s="4"/>
       <c r="AF190" s="4"/>
     </row>
-    <row r="191" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -11063,7 +11077,7 @@
       <c r="AE191" s="4"/>
       <c r="AF191" s="4"/>
     </row>
-    <row r="192" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -11096,7 +11110,7 @@
       <c r="AE192" s="4"/>
       <c r="AF192" s="4"/>
     </row>
-    <row r="193" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -11129,7 +11143,7 @@
       <c r="AE193" s="4"/>
       <c r="AF193" s="4"/>
     </row>
-    <row r="194" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -11162,7 +11176,7 @@
       <c r="AE194" s="4"/>
       <c r="AF194" s="4"/>
     </row>
-    <row r="195" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -11195,7 +11209,7 @@
       <c r="AE195" s="4"/>
       <c r="AF195" s="4"/>
     </row>
-    <row r="196" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -11228,7 +11242,7 @@
       <c r="AE196" s="4"/>
       <c r="AF196" s="4"/>
     </row>
-    <row r="197" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -11261,7 +11275,7 @@
       <c r="AE197" s="4"/>
       <c r="AF197" s="4"/>
     </row>
-    <row r="198" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -11294,7 +11308,7 @@
       <c r="AE198" s="4"/>
       <c r="AF198" s="4"/>
     </row>
-    <row r="199" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -11327,7 +11341,7 @@
       <c r="AE199" s="4"/>
       <c r="AF199" s="4"/>
     </row>
-    <row r="200" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -11360,7 +11374,7 @@
       <c r="AE200" s="4"/>
       <c r="AF200" s="4"/>
     </row>
-    <row r="201" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -11393,7 +11407,7 @@
       <c r="AE201" s="4"/>
       <c r="AF201" s="4"/>
     </row>
-    <row r="202" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -11426,7 +11440,7 @@
       <c r="AE202" s="4"/>
       <c r="AF202" s="4"/>
     </row>
-    <row r="203" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -11459,7 +11473,7 @@
       <c r="AE203" s="4"/>
       <c r="AF203" s="4"/>
     </row>
-    <row r="204" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -11492,7 +11506,7 @@
       <c r="AE204" s="4"/>
       <c r="AF204" s="4"/>
     </row>
-    <row r="205" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -11525,7 +11539,7 @@
       <c r="AE205" s="4"/>
       <c r="AF205" s="4"/>
     </row>
-    <row r="206" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -11558,7 +11572,7 @@
       <c r="AE206" s="4"/>
       <c r="AF206" s="4"/>
     </row>
-    <row r="207" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -11591,7 +11605,7 @@
       <c r="AE207" s="4"/>
       <c r="AF207" s="4"/>
     </row>
-    <row r="208" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -11624,7 +11638,7 @@
       <c r="AE208" s="4"/>
       <c r="AF208" s="4"/>
     </row>
-    <row r="209" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -11657,7 +11671,7 @@
       <c r="AE209" s="4"/>
       <c r="AF209" s="4"/>
     </row>
-    <row r="210" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -11690,7 +11704,7 @@
       <c r="AE210" s="4"/>
       <c r="AF210" s="4"/>
     </row>
-    <row r="211" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -11723,7 +11737,7 @@
       <c r="AE211" s="4"/>
       <c r="AF211" s="4"/>
     </row>
-    <row r="212" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -11756,7 +11770,7 @@
       <c r="AE212" s="4"/>
       <c r="AF212" s="4"/>
     </row>
-    <row r="213" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -11789,7 +11803,7 @@
       <c r="AE213" s="4"/>
       <c r="AF213" s="4"/>
     </row>
-    <row r="214" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -11822,7 +11836,7 @@
       <c r="AE214" s="4"/>
       <c r="AF214" s="4"/>
     </row>
-    <row r="215" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -11855,7 +11869,7 @@
       <c r="AE215" s="4"/>
       <c r="AF215" s="4"/>
     </row>
-    <row r="216" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -11888,7 +11902,7 @@
       <c r="AE216" s="4"/>
       <c r="AF216" s="4"/>
     </row>
-    <row r="217" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -11921,7 +11935,7 @@
       <c r="AE217" s="4"/>
       <c r="AF217" s="4"/>
     </row>
-    <row r="218" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -11954,7 +11968,7 @@
       <c r="AE218" s="4"/>
       <c r="AF218" s="4"/>
     </row>
-    <row r="219" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -11987,7 +12001,7 @@
       <c r="AE219" s="4"/>
       <c r="AF219" s="4"/>
     </row>
-    <row r="220" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -12020,7 +12034,7 @@
       <c r="AE220" s="4"/>
       <c r="AF220" s="4"/>
     </row>
-    <row r="221" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -12053,7 +12067,7 @@
       <c r="AE221" s="4"/>
       <c r="AF221" s="4"/>
     </row>
-    <row r="222" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -12086,7 +12100,7 @@
       <c r="AE222" s="4"/>
       <c r="AF222" s="4"/>
     </row>
-    <row r="223" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -12119,7 +12133,7 @@
       <c r="AE223" s="4"/>
       <c r="AF223" s="4"/>
     </row>
-    <row r="224" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -12152,7 +12166,7 @@
       <c r="AE224" s="4"/>
       <c r="AF224" s="4"/>
     </row>
-    <row r="225" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -12185,7 +12199,7 @@
       <c r="AE225" s="4"/>
       <c r="AF225" s="4"/>
     </row>
-    <row r="226" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -12218,7 +12232,7 @@
       <c r="AE226" s="4"/>
       <c r="AF226" s="4"/>
     </row>
-    <row r="227" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -12251,7 +12265,7 @@
       <c r="AE227" s="4"/>
       <c r="AF227" s="4"/>
     </row>
-    <row r="228" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -12284,7 +12298,7 @@
       <c r="AE228" s="4"/>
       <c r="AF228" s="4"/>
     </row>
-    <row r="229" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -12317,7 +12331,7 @@
       <c r="AE229" s="4"/>
       <c r="AF229" s="4"/>
     </row>
-    <row r="230" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -12350,7 +12364,7 @@
       <c r="AE230" s="4"/>
       <c r="AF230" s="4"/>
     </row>
-    <row r="231" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -12383,7 +12397,7 @@
       <c r="AE231" s="4"/>
       <c r="AF231" s="4"/>
     </row>
-    <row r="232" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -12416,7 +12430,7 @@
       <c r="AE232" s="4"/>
       <c r="AF232" s="4"/>
     </row>
-    <row r="233" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -12449,7 +12463,7 @@
       <c r="AE233" s="4"/>
       <c r="AF233" s="4"/>
     </row>
-    <row r="234" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -12482,7 +12496,7 @@
       <c r="AE234" s="4"/>
       <c r="AF234" s="4"/>
     </row>
-    <row r="235" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -12515,7 +12529,7 @@
       <c r="AE235" s="4"/>
       <c r="AF235" s="4"/>
     </row>
-    <row r="236" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -12548,7 +12562,7 @@
       <c r="AE236" s="4"/>
       <c r="AF236" s="4"/>
     </row>
-    <row r="237" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -12581,7 +12595,7 @@
       <c r="AE237" s="4"/>
       <c r="AF237" s="4"/>
     </row>
-    <row r="238" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -12614,7 +12628,7 @@
       <c r="AE238" s="4"/>
       <c r="AF238" s="4"/>
     </row>
-    <row r="239" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -12647,7 +12661,7 @@
       <c r="AE239" s="4"/>
       <c r="AF239" s="4"/>
     </row>
-    <row r="240" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -12680,7 +12694,7 @@
       <c r="AE240" s="4"/>
       <c r="AF240" s="4"/>
     </row>
-    <row r="241" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -12713,7 +12727,7 @@
       <c r="AE241" s="4"/>
       <c r="AF241" s="4"/>
     </row>
-    <row r="242" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -12746,7 +12760,7 @@
       <c r="AE242" s="4"/>
       <c r="AF242" s="4"/>
     </row>
-    <row r="243" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -12779,7 +12793,7 @@
       <c r="AE243" s="4"/>
       <c r="AF243" s="4"/>
     </row>
-    <row r="244" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -12812,7 +12826,7 @@
       <c r="AE244" s="4"/>
       <c r="AF244" s="4"/>
     </row>
-    <row r="245" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -12845,7 +12859,7 @@
       <c r="AE245" s="4"/>
       <c r="AF245" s="4"/>
     </row>
-    <row r="246" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -12878,7 +12892,7 @@
       <c r="AE246" s="4"/>
       <c r="AF246" s="4"/>
     </row>
-    <row r="247" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -12911,7 +12925,7 @@
       <c r="AE247" s="4"/>
       <c r="AF247" s="4"/>
     </row>
-    <row r="248" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -12944,7 +12958,7 @@
       <c r="AE248" s="4"/>
       <c r="AF248" s="4"/>
     </row>
-    <row r="249" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -12977,7 +12991,7 @@
       <c r="AE249" s="4"/>
       <c r="AF249" s="4"/>
     </row>
-    <row r="250" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -13010,7 +13024,7 @@
       <c r="AE250" s="4"/>
       <c r="AF250" s="4"/>
     </row>
-    <row r="251" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -13043,7 +13057,7 @@
       <c r="AE251" s="4"/>
       <c r="AF251" s="4"/>
     </row>
-    <row r="252" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -13076,7 +13090,7 @@
       <c r="AE252" s="4"/>
       <c r="AF252" s="4"/>
     </row>
-    <row r="253" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -13109,7 +13123,7 @@
       <c r="AE253" s="4"/>
       <c r="AF253" s="4"/>
     </row>
-    <row r="254" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -13142,7 +13156,7 @@
       <c r="AE254" s="4"/>
       <c r="AF254" s="4"/>
     </row>
-    <row r="255" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -13175,7 +13189,7 @@
       <c r="AE255" s="4"/>
       <c r="AF255" s="4"/>
     </row>
-    <row r="256" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -13208,7 +13222,7 @@
       <c r="AE256" s="4"/>
       <c r="AF256" s="4"/>
     </row>
-    <row r="257" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -13241,7 +13255,7 @@
       <c r="AE257" s="4"/>
       <c r="AF257" s="4"/>
     </row>
-    <row r="258" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -13274,7 +13288,7 @@
       <c r="AE258" s="4"/>
       <c r="AF258" s="4"/>
     </row>
-    <row r="259" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -13307,7 +13321,7 @@
       <c r="AE259" s="4"/>
       <c r="AF259" s="4"/>
     </row>
-    <row r="260" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -13340,7 +13354,7 @@
       <c r="AE260" s="4"/>
       <c r="AF260" s="4"/>
     </row>
-    <row r="261" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -13373,7 +13387,7 @@
       <c r="AE261" s="4"/>
       <c r="AF261" s="4"/>
     </row>
-    <row r="262" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -13406,7 +13420,7 @@
       <c r="AE262" s="4"/>
       <c r="AF262" s="4"/>
     </row>
-    <row r="263" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -13439,7 +13453,7 @@
       <c r="AE263" s="4"/>
       <c r="AF263" s="4"/>
     </row>
-    <row r="264" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -13472,7 +13486,7 @@
       <c r="AE264" s="4"/>
       <c r="AF264" s="4"/>
     </row>
-    <row r="265" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -13505,7 +13519,7 @@
       <c r="AE265" s="4"/>
       <c r="AF265" s="4"/>
     </row>
-    <row r="266" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -13538,7 +13552,7 @@
       <c r="AE266" s="4"/>
       <c r="AF266" s="4"/>
     </row>
-    <row r="267" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -13571,7 +13585,7 @@
       <c r="AE267" s="4"/>
       <c r="AF267" s="4"/>
     </row>
-    <row r="268" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -13604,7 +13618,7 @@
       <c r="AE268" s="4"/>
       <c r="AF268" s="4"/>
     </row>
-    <row r="269" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -13637,7 +13651,7 @@
       <c r="AE269" s="4"/>
       <c r="AF269" s="4"/>
     </row>
-    <row r="270" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -13670,7 +13684,7 @@
       <c r="AE270" s="4"/>
       <c r="AF270" s="4"/>
     </row>
-    <row r="271" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -13703,7 +13717,7 @@
       <c r="AE271" s="4"/>
       <c r="AF271" s="4"/>
     </row>
-    <row r="272" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -13736,7 +13750,7 @@
       <c r="AE272" s="4"/>
       <c r="AF272" s="4"/>
     </row>
-    <row r="273" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -13769,7 +13783,7 @@
       <c r="AE273" s="4"/>
       <c r="AF273" s="4"/>
     </row>
-    <row r="274" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -13802,7 +13816,7 @@
       <c r="AE274" s="4"/>
       <c r="AF274" s="4"/>
     </row>
-    <row r="275" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -13835,7 +13849,7 @@
       <c r="AE275" s="4"/>
       <c r="AF275" s="4"/>
     </row>
-    <row r="276" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -13868,7 +13882,7 @@
       <c r="AE276" s="4"/>
       <c r="AF276" s="4"/>
     </row>
-    <row r="277" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -13901,7 +13915,7 @@
       <c r="AE277" s="4"/>
       <c r="AF277" s="4"/>
     </row>
-    <row r="278" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -13934,7 +13948,7 @@
       <c r="AE278" s="4"/>
       <c r="AF278" s="4"/>
     </row>
-    <row r="279" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -13967,7 +13981,7 @@
       <c r="AE279" s="4"/>
       <c r="AF279" s="4"/>
     </row>
-    <row r="280" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -14000,7 +14014,7 @@
       <c r="AE280" s="4"/>
       <c r="AF280" s="4"/>
     </row>
-    <row r="281" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -14033,7 +14047,7 @@
       <c r="AE281" s="4"/>
       <c r="AF281" s="4"/>
     </row>
-    <row r="282" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
@@ -14066,7 +14080,7 @@
       <c r="AE282" s="4"/>
       <c r="AF282" s="4"/>
     </row>
-    <row r="283" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -14099,7 +14113,7 @@
       <c r="AE283" s="4"/>
       <c r="AF283" s="4"/>
     </row>
-    <row r="284" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
@@ -14132,7 +14146,7 @@
       <c r="AE284" s="4"/>
       <c r="AF284" s="4"/>
     </row>
-    <row r="285" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -14165,7 +14179,7 @@
       <c r="AE285" s="4"/>
       <c r="AF285" s="4"/>
     </row>
-    <row r="286" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -14198,7 +14212,7 @@
       <c r="AE286" s="4"/>
       <c r="AF286" s="4"/>
     </row>
-    <row r="287" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -14231,7 +14245,7 @@
       <c r="AE287" s="4"/>
       <c r="AF287" s="4"/>
     </row>
-    <row r="288" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -14264,7 +14278,7 @@
       <c r="AE288" s="4"/>
       <c r="AF288" s="4"/>
     </row>
-    <row r="289" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
@@ -14297,7 +14311,7 @@
       <c r="AE289" s="4"/>
       <c r="AF289" s="4"/>
     </row>
-    <row r="290" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -14330,7 +14344,7 @@
       <c r="AE290" s="4"/>
       <c r="AF290" s="4"/>
     </row>
-    <row r="291" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -14363,7 +14377,7 @@
       <c r="AE291" s="4"/>
       <c r="AF291" s="4"/>
     </row>
-    <row r="292" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
@@ -14396,7 +14410,7 @@
       <c r="AE292" s="4"/>
       <c r="AF292" s="4"/>
     </row>
-    <row r="293" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -14429,7 +14443,7 @@
       <c r="AE293" s="4"/>
       <c r="AF293" s="4"/>
     </row>
-    <row r="294" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -14462,7 +14476,7 @@
       <c r="AE294" s="4"/>
       <c r="AF294" s="4"/>
     </row>
-    <row r="295" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -14495,7 +14509,7 @@
       <c r="AE295" s="4"/>
       <c r="AF295" s="4"/>
     </row>
-    <row r="296" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
@@ -14528,7 +14542,7 @@
       <c r="AE296" s="4"/>
       <c r="AF296" s="4"/>
     </row>
-    <row r="297" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
@@ -14561,7 +14575,7 @@
       <c r="AE297" s="4"/>
       <c r="AF297" s="4"/>
     </row>
-    <row r="298" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
@@ -14594,7 +14608,7 @@
       <c r="AE298" s="4"/>
       <c r="AF298" s="4"/>
     </row>
-    <row r="299" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -14627,7 +14641,7 @@
       <c r="AE299" s="4"/>
       <c r="AF299" s="4"/>
     </row>
-    <row r="300" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
@@ -14660,7 +14674,7 @@
       <c r="AE300" s="4"/>
       <c r="AF300" s="4"/>
     </row>
-    <row r="301" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
@@ -14693,7 +14707,7 @@
       <c r="AE301" s="4"/>
       <c r="AF301" s="4"/>
     </row>
-    <row r="302" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -14726,7 +14740,7 @@
       <c r="AE302" s="4"/>
       <c r="AF302" s="4"/>
     </row>
-    <row r="303" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
@@ -14759,7 +14773,7 @@
       <c r="AE303" s="4"/>
       <c r="AF303" s="4"/>
     </row>
-    <row r="304" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
@@ -14792,7 +14806,7 @@
       <c r="AE304" s="4"/>
       <c r="AF304" s="4"/>
     </row>
-    <row r="305" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
@@ -14825,7 +14839,7 @@
       <c r="AE305" s="4"/>
       <c r="AF305" s="4"/>
     </row>
-    <row r="306" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -14858,7 +14872,7 @@
       <c r="AE306" s="4"/>
       <c r="AF306" s="4"/>
     </row>
-    <row r="307" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -14891,7 +14905,7 @@
       <c r="AE307" s="4"/>
       <c r="AF307" s="4"/>
     </row>
-    <row r="308" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -14924,7 +14938,7 @@
       <c r="AE308" s="4"/>
       <c r="AF308" s="4"/>
     </row>
-    <row r="309" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -14957,7 +14971,7 @@
       <c r="AE309" s="4"/>
       <c r="AF309" s="4"/>
     </row>
-    <row r="310" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
@@ -14990,7 +15004,7 @@
       <c r="AE310" s="4"/>
       <c r="AF310" s="4"/>
     </row>
-    <row r="311" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -15023,7 +15037,7 @@
       <c r="AE311" s="4"/>
       <c r="AF311" s="4"/>
     </row>
-    <row r="312" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -15056,7 +15070,7 @@
       <c r="AE312" s="4"/>
       <c r="AF312" s="4"/>
     </row>
-    <row r="313" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
@@ -15089,7 +15103,7 @@
       <c r="AE313" s="4"/>
       <c r="AF313" s="4"/>
     </row>
-    <row r="314" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
@@ -15122,7 +15136,7 @@
       <c r="AE314" s="4"/>
       <c r="AF314" s="4"/>
     </row>
-    <row r="315" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -15155,7 +15169,7 @@
       <c r="AE315" s="4"/>
       <c r="AF315" s="4"/>
     </row>
-    <row r="316" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
@@ -15188,7 +15202,7 @@
       <c r="AE316" s="4"/>
       <c r="AF316" s="4"/>
     </row>
-    <row r="317" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -15221,7 +15235,7 @@
       <c r="AE317" s="4"/>
       <c r="AF317" s="4"/>
     </row>
-    <row r="318" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
@@ -15254,7 +15268,7 @@
       <c r="AE318" s="4"/>
       <c r="AF318" s="4"/>
     </row>
-    <row r="319" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
@@ -15287,7 +15301,7 @@
       <c r="AE319" s="4"/>
       <c r="AF319" s="4"/>
     </row>
-    <row r="320" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
@@ -15320,7 +15334,7 @@
       <c r="AE320" s="4"/>
       <c r="AF320" s="4"/>
     </row>
-    <row r="321" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -15353,7 +15367,7 @@
       <c r="AE321" s="4"/>
       <c r="AF321" s="4"/>
     </row>
-    <row r="322" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -15386,7 +15400,7 @@
       <c r="AE322" s="4"/>
       <c r="AF322" s="4"/>
     </row>
-    <row r="323" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -15419,7 +15433,7 @@
       <c r="AE323" s="4"/>
       <c r="AF323" s="4"/>
     </row>
-    <row r="324" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
@@ -15452,7 +15466,7 @@
       <c r="AE324" s="4"/>
       <c r="AF324" s="4"/>
     </row>
-    <row r="325" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
@@ -15485,7 +15499,7 @@
       <c r="AE325" s="4"/>
       <c r="AF325" s="4"/>
     </row>
-    <row r="326" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
@@ -15518,7 +15532,7 @@
       <c r="AE326" s="4"/>
       <c r="AF326" s="4"/>
     </row>
-    <row r="327" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
@@ -15551,7 +15565,7 @@
       <c r="AE327" s="4"/>
       <c r="AF327" s="4"/>
     </row>
-    <row r="328" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
@@ -15584,7 +15598,7 @@
       <c r="AE328" s="4"/>
       <c r="AF328" s="4"/>
     </row>
-    <row r="329" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
@@ -15617,7 +15631,7 @@
       <c r="AE329" s="4"/>
       <c r="AF329" s="4"/>
     </row>
-    <row r="330" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
@@ -15650,7 +15664,7 @@
       <c r="AE330" s="4"/>
       <c r="AF330" s="4"/>
     </row>
-    <row r="331" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
@@ -15683,7 +15697,7 @@
       <c r="AE331" s="4"/>
       <c r="AF331" s="4"/>
     </row>
-    <row r="332" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
@@ -15716,7 +15730,7 @@
       <c r="AE332" s="4"/>
       <c r="AF332" s="4"/>
     </row>
-    <row r="333" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
@@ -15749,7 +15763,7 @@
       <c r="AE333" s="4"/>
       <c r="AF333" s="4"/>
     </row>
-    <row r="334" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
@@ -15782,7 +15796,7 @@
       <c r="AE334" s="4"/>
       <c r="AF334" s="4"/>
     </row>
-    <row r="335" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
@@ -15815,7 +15829,7 @@
       <c r="AE335" s="4"/>
       <c r="AF335" s="4"/>
     </row>
-    <row r="336" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
@@ -15848,7 +15862,7 @@
       <c r="AE336" s="4"/>
       <c r="AF336" s="4"/>
     </row>
-    <row r="337" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -15881,7 +15895,7 @@
       <c r="AE337" s="4"/>
       <c r="AF337" s="4"/>
     </row>
-    <row r="338" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -15914,7 +15928,7 @@
       <c r="AE338" s="4"/>
       <c r="AF338" s="4"/>
     </row>
-    <row r="339" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
@@ -15947,7 +15961,7 @@
       <c r="AE339" s="4"/>
       <c r="AF339" s="4"/>
     </row>
-    <row r="340" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
@@ -15980,7 +15994,7 @@
       <c r="AE340" s="4"/>
       <c r="AF340" s="4"/>
     </row>
-    <row r="341" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
@@ -16013,7 +16027,7 @@
       <c r="AE341" s="4"/>
       <c r="AF341" s="4"/>
     </row>
-    <row r="342" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -16046,7 +16060,7 @@
       <c r="AE342" s="4"/>
       <c r="AF342" s="4"/>
     </row>
-    <row r="343" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -16079,7 +16093,7 @@
       <c r="AE343" s="4"/>
       <c r="AF343" s="4"/>
     </row>
-    <row r="344" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -16112,7 +16126,7 @@
       <c r="AE344" s="4"/>
       <c r="AF344" s="4"/>
     </row>
-    <row r="345" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -16145,7 +16159,7 @@
       <c r="AE345" s="4"/>
       <c r="AF345" s="4"/>
     </row>
-    <row r="346" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -16178,7 +16192,7 @@
       <c r="AE346" s="4"/>
       <c r="AF346" s="4"/>
     </row>
-    <row r="347" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
@@ -16211,7 +16225,7 @@
       <c r="AE347" s="4"/>
       <c r="AF347" s="4"/>
     </row>
-    <row r="348" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -16244,7 +16258,7 @@
       <c r="AE348" s="4"/>
       <c r="AF348" s="4"/>
     </row>
-    <row r="349" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -16277,7 +16291,7 @@
       <c r="AE349" s="4"/>
       <c r="AF349" s="4"/>
     </row>
-    <row r="350" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -16310,7 +16324,7 @@
       <c r="AE350" s="4"/>
       <c r="AF350" s="4"/>
     </row>
-    <row r="351" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -16343,7 +16357,7 @@
       <c r="AE351" s="4"/>
       <c r="AF351" s="4"/>
     </row>
-    <row r="352" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -16376,7 +16390,7 @@
       <c r="AE352" s="4"/>
       <c r="AF352" s="4"/>
     </row>
-    <row r="353" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
@@ -16409,7 +16423,7 @@
       <c r="AE353" s="4"/>
       <c r="AF353" s="4"/>
     </row>
-    <row r="354" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -16442,7 +16456,7 @@
       <c r="AE354" s="4"/>
       <c r="AF354" s="4"/>
     </row>
-    <row r="355" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -16475,7 +16489,7 @@
       <c r="AE355" s="4"/>
       <c r="AF355" s="4"/>
     </row>
-    <row r="356" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
@@ -16508,7 +16522,7 @@
       <c r="AE356" s="4"/>
       <c r="AF356" s="4"/>
     </row>
-    <row r="357" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -16541,7 +16555,7 @@
       <c r="AE357" s="4"/>
       <c r="AF357" s="4"/>
     </row>
-    <row r="358" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -16574,7 +16588,7 @@
       <c r="AE358" s="4"/>
       <c r="AF358" s="4"/>
     </row>
-    <row r="359" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -16607,7 +16621,7 @@
       <c r="AE359" s="4"/>
       <c r="AF359" s="4"/>
     </row>
-    <row r="360" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
@@ -16640,7 +16654,7 @@
       <c r="AE360" s="4"/>
       <c r="AF360" s="4"/>
     </row>
-    <row r="361" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
@@ -16673,7 +16687,7 @@
       <c r="AE361" s="4"/>
       <c r="AF361" s="4"/>
     </row>
-    <row r="362" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -16706,7 +16720,7 @@
       <c r="AE362" s="4"/>
       <c r="AF362" s="4"/>
     </row>
-    <row r="363" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -16739,7 +16753,7 @@
       <c r="AE363" s="4"/>
       <c r="AF363" s="4"/>
     </row>
-    <row r="364" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -16772,7 +16786,7 @@
       <c r="AE364" s="4"/>
       <c r="AF364" s="4"/>
     </row>
-    <row r="365" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -16805,7 +16819,7 @@
       <c r="AE365" s="4"/>
       <c r="AF365" s="4"/>
     </row>
-    <row r="366" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
@@ -16838,7 +16852,7 @@
       <c r="AE366" s="4"/>
       <c r="AF366" s="4"/>
     </row>
-    <row r="367" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
@@ -16871,7 +16885,7 @@
       <c r="AE367" s="4"/>
       <c r="AF367" s="4"/>
     </row>
-    <row r="368" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
@@ -16904,7 +16918,7 @@
       <c r="AE368" s="4"/>
       <c r="AF368" s="4"/>
     </row>
-    <row r="369" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
@@ -16937,7 +16951,7 @@
       <c r="AE369" s="4"/>
       <c r="AF369" s="4"/>
     </row>
-    <row r="370" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
@@ -16970,7 +16984,7 @@
       <c r="AE370" s="4"/>
       <c r="AF370" s="4"/>
     </row>
-    <row r="371" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
@@ -17003,7 +17017,7 @@
       <c r="AE371" s="4"/>
       <c r="AF371" s="4"/>
     </row>
-    <row r="372" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -17036,7 +17050,7 @@
       <c r="AE372" s="4"/>
       <c r="AF372" s="4"/>
     </row>
-    <row r="373" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
@@ -17069,7 +17083,7 @@
       <c r="AE373" s="4"/>
       <c r="AF373" s="4"/>
     </row>
-    <row r="374" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
@@ -17102,7 +17116,7 @@
       <c r="AE374" s="4"/>
       <c r="AF374" s="4"/>
     </row>
-    <row r="375" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
@@ -17135,7 +17149,7 @@
       <c r="AE375" s="4"/>
       <c r="AF375" s="4"/>
     </row>
-    <row r="376" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
@@ -17168,7 +17182,7 @@
       <c r="AE376" s="4"/>
       <c r="AF376" s="4"/>
     </row>
-    <row r="377" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
@@ -17201,7 +17215,7 @@
       <c r="AE377" s="4"/>
       <c r="AF377" s="4"/>
     </row>
-    <row r="378" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
@@ -17234,7 +17248,7 @@
       <c r="AE378" s="4"/>
       <c r="AF378" s="4"/>
     </row>
-    <row r="379" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
@@ -17267,7 +17281,7 @@
       <c r="AE379" s="4"/>
       <c r="AF379" s="4"/>
     </row>
-    <row r="380" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
@@ -17300,7 +17314,7 @@
       <c r="AE380" s="4"/>
       <c r="AF380" s="4"/>
     </row>
-    <row r="381" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
@@ -17333,7 +17347,7 @@
       <c r="AE381" s="4"/>
       <c r="AF381" s="4"/>
     </row>
-    <row r="382" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
@@ -17366,7 +17380,7 @@
       <c r="AE382" s="4"/>
       <c r="AF382" s="4"/>
     </row>
-    <row r="383" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
@@ -17399,7 +17413,7 @@
       <c r="AE383" s="4"/>
       <c r="AF383" s="4"/>
     </row>
-    <row r="384" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
@@ -17432,7 +17446,7 @@
       <c r="AE384" s="4"/>
       <c r="AF384" s="4"/>
     </row>
-    <row r="385" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
@@ -17465,7 +17479,7 @@
       <c r="AE385" s="4"/>
       <c r="AF385" s="4"/>
     </row>
-    <row r="386" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
@@ -17498,7 +17512,7 @@
       <c r="AE386" s="4"/>
       <c r="AF386" s="4"/>
     </row>
-    <row r="387" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
@@ -17531,7 +17545,7 @@
       <c r="AE387" s="4"/>
       <c r="AF387" s="4"/>
     </row>
-    <row r="388" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
@@ -17564,7 +17578,7 @@
       <c r="AE388" s="4"/>
       <c r="AF388" s="4"/>
     </row>
-    <row r="389" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
@@ -17597,7 +17611,7 @@
       <c r="AE389" s="4"/>
       <c r="AF389" s="4"/>
     </row>
-    <row r="390" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
@@ -17630,7 +17644,7 @@
       <c r="AE390" s="4"/>
       <c r="AF390" s="4"/>
     </row>
-    <row r="391" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
@@ -17663,7 +17677,7 @@
       <c r="AE391" s="4"/>
       <c r="AF391" s="4"/>
     </row>
-    <row r="392" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
@@ -17696,7 +17710,7 @@
       <c r="AE392" s="4"/>
       <c r="AF392" s="4"/>
     </row>
-    <row r="393" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -17729,7 +17743,7 @@
       <c r="AE393" s="4"/>
       <c r="AF393" s="4"/>
     </row>
-    <row r="394" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
@@ -17762,7 +17776,7 @@
       <c r="AE394" s="4"/>
       <c r="AF394" s="4"/>
     </row>
-    <row r="395" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
@@ -17795,7 +17809,7 @@
       <c r="AE395" s="4"/>
       <c r="AF395" s="4"/>
     </row>
-    <row r="396" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
@@ -17828,7 +17842,7 @@
       <c r="AE396" s="4"/>
       <c r="AF396" s="4"/>
     </row>
-    <row r="397" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
@@ -17861,7 +17875,7 @@
       <c r="AE397" s="4"/>
       <c r="AF397" s="4"/>
     </row>
-    <row r="398" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
@@ -17894,7 +17908,7 @@
       <c r="AE398" s="4"/>
       <c r="AF398" s="4"/>
     </row>
-    <row r="399" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
@@ -17927,7 +17941,7 @@
       <c r="AE399" s="4"/>
       <c r="AF399" s="4"/>
     </row>
-    <row r="400" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
@@ -17960,7 +17974,7 @@
       <c r="AE400" s="4"/>
       <c r="AF400" s="4"/>
     </row>
-    <row r="401" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
@@ -17993,7 +18007,7 @@
       <c r="AE401" s="4"/>
       <c r="AF401" s="4"/>
     </row>
-    <row r="402" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
@@ -18026,7 +18040,7 @@
       <c r="AE402" s="4"/>
       <c r="AF402" s="4"/>
     </row>
-    <row r="403" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
@@ -18059,7 +18073,7 @@
       <c r="AE403" s="4"/>
       <c r="AF403" s="4"/>
     </row>
-    <row r="404" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
@@ -18092,7 +18106,7 @@
       <c r="AE404" s="4"/>
       <c r="AF404" s="4"/>
     </row>
-    <row r="405" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
@@ -18125,7 +18139,7 @@
       <c r="AE405" s="4"/>
       <c r="AF405" s="4"/>
     </row>
-    <row r="406" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
@@ -18158,7 +18172,7 @@
       <c r="AE406" s="4"/>
       <c r="AF406" s="4"/>
     </row>
-    <row r="407" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
@@ -18191,7 +18205,7 @@
       <c r="AE407" s="4"/>
       <c r="AF407" s="4"/>
     </row>
-    <row r="408" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
@@ -18224,7 +18238,7 @@
       <c r="AE408" s="4"/>
       <c r="AF408" s="4"/>
     </row>
-    <row r="409" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
@@ -18257,7 +18271,7 @@
       <c r="AE409" s="4"/>
       <c r="AF409" s="4"/>
     </row>
-    <row r="410" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
@@ -18290,7 +18304,7 @@
       <c r="AE410" s="4"/>
       <c r="AF410" s="4"/>
     </row>
-    <row r="411" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
@@ -18323,7 +18337,7 @@
       <c r="AE411" s="4"/>
       <c r="AF411" s="4"/>
     </row>
-    <row r="412" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
@@ -18356,7 +18370,7 @@
       <c r="AE412" s="4"/>
       <c r="AF412" s="4"/>
     </row>
-    <row r="413" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
@@ -18389,7 +18403,7 @@
       <c r="AE413" s="4"/>
       <c r="AF413" s="4"/>
     </row>
-    <row r="414" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
@@ -18422,7 +18436,7 @@
       <c r="AE414" s="4"/>
       <c r="AF414" s="4"/>
     </row>
-    <row r="415" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
@@ -18455,7 +18469,7 @@
       <c r="AE415" s="4"/>
       <c r="AF415" s="4"/>
     </row>
-    <row r="416" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
@@ -18488,7 +18502,7 @@
       <c r="AE416" s="4"/>
       <c r="AF416" s="4"/>
     </row>
-    <row r="417" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
@@ -18521,7 +18535,7 @@
       <c r="AE417" s="4"/>
       <c r="AF417" s="4"/>
     </row>
-    <row r="418" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -18554,7 +18568,7 @@
       <c r="AE418" s="4"/>
       <c r="AF418" s="4"/>
     </row>
-    <row r="419" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
@@ -18587,7 +18601,7 @@
       <c r="AE419" s="4"/>
       <c r="AF419" s="4"/>
     </row>
-    <row r="420" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
@@ -18620,7 +18634,7 @@
       <c r="AE420" s="4"/>
       <c r="AF420" s="4"/>
     </row>
-    <row r="421" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
@@ -18653,7 +18667,7 @@
       <c r="AE421" s="4"/>
       <c r="AF421" s="4"/>
     </row>
-    <row r="422" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -18686,7 +18700,7 @@
       <c r="AE422" s="4"/>
       <c r="AF422" s="4"/>
     </row>
-    <row r="423" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
@@ -18719,7 +18733,7 @@
       <c r="AE423" s="4"/>
       <c r="AF423" s="4"/>
     </row>
-    <row r="424" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
@@ -18752,7 +18766,7 @@
       <c r="AE424" s="4"/>
       <c r="AF424" s="4"/>
     </row>
-    <row r="425" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
@@ -18785,7 +18799,7 @@
       <c r="AE425" s="4"/>
       <c r="AF425" s="4"/>
     </row>
-    <row r="426" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
@@ -18818,7 +18832,7 @@
       <c r="AE426" s="4"/>
       <c r="AF426" s="4"/>
     </row>
-    <row r="427" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -18851,7 +18865,7 @@
       <c r="AE427" s="4"/>
       <c r="AF427" s="4"/>
     </row>
-    <row r="428" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
@@ -18884,7 +18898,7 @@
       <c r="AE428" s="4"/>
       <c r="AF428" s="4"/>
     </row>
-    <row r="429" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
@@ -18917,7 +18931,7 @@
       <c r="AE429" s="4"/>
       <c r="AF429" s="4"/>
     </row>
-    <row r="430" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
@@ -18950,7 +18964,7 @@
       <c r="AE430" s="4"/>
       <c r="AF430" s="4"/>
     </row>
-    <row r="431" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
@@ -18983,7 +18997,7 @@
       <c r="AE431" s="4"/>
       <c r="AF431" s="4"/>
     </row>
-    <row r="432" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
@@ -19016,7 +19030,7 @@
       <c r="AE432" s="4"/>
       <c r="AF432" s="4"/>
     </row>
-    <row r="433" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
@@ -19049,7 +19063,7 @@
       <c r="AE433" s="4"/>
       <c r="AF433" s="4"/>
     </row>
-    <row r="434" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
@@ -19082,7 +19096,7 @@
       <c r="AE434" s="4"/>
       <c r="AF434" s="4"/>
     </row>
-    <row r="435" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
@@ -19115,7 +19129,7 @@
       <c r="AE435" s="4"/>
       <c r="AF435" s="4"/>
     </row>
-    <row r="436" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
@@ -19148,7 +19162,7 @@
       <c r="AE436" s="4"/>
       <c r="AF436" s="4"/>
     </row>
-    <row r="437" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
@@ -19181,7 +19195,7 @@
       <c r="AE437" s="4"/>
       <c r="AF437" s="4"/>
     </row>
-    <row r="438" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
@@ -19214,7 +19228,7 @@
       <c r="AE438" s="4"/>
       <c r="AF438" s="4"/>
     </row>
-    <row r="439" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
@@ -19247,7 +19261,7 @@
       <c r="AE439" s="4"/>
       <c r="AF439" s="4"/>
     </row>
-    <row r="440" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
@@ -19280,7 +19294,7 @@
       <c r="AE440" s="4"/>
       <c r="AF440" s="4"/>
     </row>
-    <row r="441" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
@@ -19313,7 +19327,7 @@
       <c r="AE441" s="4"/>
       <c r="AF441" s="4"/>
     </row>
-    <row r="442" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -19346,7 +19360,7 @@
       <c r="AE442" s="4"/>
       <c r="AF442" s="4"/>
     </row>
-    <row r="443" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
@@ -19379,7 +19393,7 @@
       <c r="AE443" s="4"/>
       <c r="AF443" s="4"/>
     </row>
-    <row r="444" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -19412,7 +19426,7 @@
       <c r="AE444" s="4"/>
       <c r="AF444" s="4"/>
     </row>
-    <row r="445" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -19445,7 +19459,7 @@
       <c r="AE445" s="4"/>
       <c r="AF445" s="4"/>
     </row>
-    <row r="446" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
@@ -19478,7 +19492,7 @@
       <c r="AE446" s="4"/>
       <c r="AF446" s="4"/>
     </row>
-    <row r="447" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
@@ -19511,7 +19525,7 @@
       <c r="AE447" s="4"/>
       <c r="AF447" s="4"/>
     </row>
-    <row r="448" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
@@ -19544,7 +19558,7 @@
       <c r="AE448" s="4"/>
       <c r="AF448" s="4"/>
     </row>
-    <row r="449" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
@@ -19577,7 +19591,7 @@
       <c r="AE449" s="4"/>
       <c r="AF449" s="4"/>
     </row>
-    <row r="450" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
@@ -19610,7 +19624,7 @@
       <c r="AE450" s="4"/>
       <c r="AF450" s="4"/>
     </row>
-    <row r="451" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
@@ -19643,7 +19657,7 @@
       <c r="AE451" s="4"/>
       <c r="AF451" s="4"/>
     </row>
-    <row r="452" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
@@ -19676,7 +19690,7 @@
       <c r="AE452" s="4"/>
       <c r="AF452" s="4"/>
     </row>
-    <row r="453" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
@@ -19709,7 +19723,7 @@
       <c r="AE453" s="4"/>
       <c r="AF453" s="4"/>
     </row>
-    <row r="454" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
@@ -19742,7 +19756,7 @@
       <c r="AE454" s="4"/>
       <c r="AF454" s="4"/>
     </row>
-    <row r="455" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
@@ -19775,7 +19789,7 @@
       <c r="AE455" s="4"/>
       <c r="AF455" s="4"/>
     </row>
-    <row r="456" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
@@ -19808,7 +19822,7 @@
       <c r="AE456" s="4"/>
       <c r="AF456" s="4"/>
     </row>
-    <row r="457" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
@@ -19841,7 +19855,7 @@
       <c r="AE457" s="4"/>
       <c r="AF457" s="4"/>
     </row>
-    <row r="458" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
@@ -19874,7 +19888,7 @@
       <c r="AE458" s="4"/>
       <c r="AF458" s="4"/>
     </row>
-    <row r="459" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
@@ -19907,7 +19921,7 @@
       <c r="AE459" s="4"/>
       <c r="AF459" s="4"/>
     </row>
-    <row r="460" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
@@ -19940,7 +19954,7 @@
       <c r="AE460" s="4"/>
       <c r="AF460" s="4"/>
     </row>
-    <row r="461" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
@@ -19973,7 +19987,7 @@
       <c r="AE461" s="4"/>
       <c r="AF461" s="4"/>
     </row>
-    <row r="462" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
@@ -20006,7 +20020,7 @@
       <c r="AE462" s="4"/>
       <c r="AF462" s="4"/>
     </row>
-    <row r="463" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
@@ -20039,7 +20053,7 @@
       <c r="AE463" s="4"/>
       <c r="AF463" s="4"/>
     </row>
-    <row r="464" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
@@ -20072,7 +20086,7 @@
       <c r="AE464" s="4"/>
       <c r="AF464" s="4"/>
     </row>
-    <row r="465" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
@@ -20105,7 +20119,7 @@
       <c r="AE465" s="4"/>
       <c r="AF465" s="4"/>
     </row>
-    <row r="466" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
@@ -20138,7 +20152,7 @@
       <c r="AE466" s="4"/>
       <c r="AF466" s="4"/>
     </row>
-    <row r="467" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
@@ -20171,7 +20185,7 @@
       <c r="AE467" s="4"/>
       <c r="AF467" s="4"/>
     </row>
-    <row r="468" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
@@ -20204,7 +20218,7 @@
       <c r="AE468" s="4"/>
       <c r="AF468" s="4"/>
     </row>
-    <row r="469" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
@@ -20237,7 +20251,7 @@
       <c r="AE469" s="4"/>
       <c r="AF469" s="4"/>
     </row>
-    <row r="470" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
@@ -20270,7 +20284,7 @@
       <c r="AE470" s="4"/>
       <c r="AF470" s="4"/>
     </row>
-    <row r="471" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
@@ -20303,7 +20317,7 @@
       <c r="AE471" s="4"/>
       <c r="AF471" s="4"/>
     </row>
-    <row r="472" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
@@ -20336,7 +20350,7 @@
       <c r="AE472" s="4"/>
       <c r="AF472" s="4"/>
     </row>
-    <row r="473" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
@@ -20369,7 +20383,7 @@
       <c r="AE473" s="4"/>
       <c r="AF473" s="4"/>
     </row>
-    <row r="474" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -20402,7 +20416,7 @@
       <c r="AE474" s="4"/>
       <c r="AF474" s="4"/>
     </row>
-    <row r="475" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
@@ -20435,7 +20449,7 @@
       <c r="AE475" s="4"/>
       <c r="AF475" s="4"/>
     </row>
-    <row r="476" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
@@ -20468,7 +20482,7 @@
       <c r="AE476" s="4"/>
       <c r="AF476" s="4"/>
     </row>
-    <row r="477" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
@@ -20501,7 +20515,7 @@
       <c r="AE477" s="4"/>
       <c r="AF477" s="4"/>
     </row>
-    <row r="478" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
@@ -20534,7 +20548,7 @@
       <c r="AE478" s="4"/>
       <c r="AF478" s="4"/>
     </row>
-    <row r="479" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
@@ -20567,7 +20581,7 @@
       <c r="AE479" s="4"/>
       <c r="AF479" s="4"/>
     </row>
-    <row r="480" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
@@ -20600,7 +20614,7 @@
       <c r="AE480" s="4"/>
       <c r="AF480" s="4"/>
     </row>
-    <row r="481" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
@@ -20633,7 +20647,7 @@
       <c r="AE481" s="4"/>
       <c r="AF481" s="4"/>
     </row>
-    <row r="482" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
@@ -20666,7 +20680,7 @@
       <c r="AE482" s="4"/>
       <c r="AF482" s="4"/>
     </row>
-    <row r="483" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
@@ -20699,7 +20713,7 @@
       <c r="AE483" s="4"/>
       <c r="AF483" s="4"/>
     </row>
-    <row r="484" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
@@ -20732,7 +20746,7 @@
       <c r="AE484" s="4"/>
       <c r="AF484" s="4"/>
     </row>
-    <row r="485" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
@@ -20765,7 +20779,7 @@
       <c r="AE485" s="4"/>
       <c r="AF485" s="4"/>
     </row>
-    <row r="486" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
@@ -20798,7 +20812,7 @@
       <c r="AE486" s="4"/>
       <c r="AF486" s="4"/>
     </row>
-    <row r="487" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
@@ -20831,7 +20845,7 @@
       <c r="AE487" s="4"/>
       <c r="AF487" s="4"/>
     </row>
-    <row r="488" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
@@ -20864,7 +20878,7 @@
       <c r="AE488" s="4"/>
       <c r="AF488" s="4"/>
     </row>
-    <row r="489" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
@@ -20897,7 +20911,7 @@
       <c r="AE489" s="4"/>
       <c r="AF489" s="4"/>
     </row>
-    <row r="490" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
@@ -20930,7 +20944,7 @@
       <c r="AE490" s="4"/>
       <c r="AF490" s="4"/>
     </row>
-    <row r="491" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
@@ -20963,7 +20977,7 @@
       <c r="AE491" s="4"/>
       <c r="AF491" s="4"/>
     </row>
-    <row r="492" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
@@ -20996,7 +21010,7 @@
       <c r="AE492" s="4"/>
       <c r="AF492" s="4"/>
     </row>
-    <row r="493" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
@@ -21029,7 +21043,7 @@
       <c r="AE493" s="4"/>
       <c r="AF493" s="4"/>
     </row>
-    <row r="494" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
@@ -21062,7 +21076,7 @@
       <c r="AE494" s="4"/>
       <c r="AF494" s="4"/>
     </row>
-    <row r="495" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
@@ -21095,7 +21109,7 @@
       <c r="AE495" s="4"/>
       <c r="AF495" s="4"/>
     </row>
-    <row r="496" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
@@ -21128,7 +21142,7 @@
       <c r="AE496" s="4"/>
       <c r="AF496" s="4"/>
     </row>
-    <row r="497" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
@@ -21161,7 +21175,7 @@
       <c r="AE497" s="4"/>
       <c r="AF497" s="4"/>
     </row>
-    <row r="498" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
@@ -21194,7 +21208,7 @@
       <c r="AE498" s="4"/>
       <c r="AF498" s="4"/>
     </row>
-    <row r="499" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
@@ -21227,7 +21241,7 @@
       <c r="AE499" s="4"/>
       <c r="AF499" s="4"/>
     </row>
-    <row r="500" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
@@ -21260,7 +21274,7 @@
       <c r="AE500" s="4"/>
       <c r="AF500" s="4"/>
     </row>
-    <row r="501" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
@@ -21293,7 +21307,7 @@
       <c r="AE501" s="4"/>
       <c r="AF501" s="4"/>
     </row>
-    <row r="502" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
@@ -21326,7 +21340,7 @@
       <c r="AE502" s="4"/>
       <c r="AF502" s="4"/>
     </row>
-    <row r="503" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
@@ -21359,7 +21373,7 @@
       <c r="AE503" s="4"/>
       <c r="AF503" s="4"/>
     </row>
-    <row r="504" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
@@ -21392,7 +21406,7 @@
       <c r="AE504" s="4"/>
       <c r="AF504" s="4"/>
     </row>
-    <row r="505" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
@@ -21425,7 +21439,7 @@
       <c r="AE505" s="4"/>
       <c r="AF505" s="4"/>
     </row>
-    <row r="506" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
@@ -21458,7 +21472,7 @@
       <c r="AE506" s="4"/>
       <c r="AF506" s="4"/>
     </row>
-    <row r="507" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
@@ -21491,7 +21505,7 @@
       <c r="AE507" s="4"/>
       <c r="AF507" s="4"/>
     </row>
-    <row r="508" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
@@ -21524,7 +21538,7 @@
       <c r="AE508" s="4"/>
       <c r="AF508" s="4"/>
     </row>
-    <row r="509" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
@@ -21557,7 +21571,7 @@
       <c r="AE509" s="4"/>
       <c r="AF509" s="4"/>
     </row>
-    <row r="510" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
@@ -21590,7 +21604,7 @@
       <c r="AE510" s="4"/>
       <c r="AF510" s="4"/>
     </row>
-    <row r="511" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
@@ -21623,7 +21637,7 @@
       <c r="AE511" s="4"/>
       <c r="AF511" s="4"/>
     </row>
-    <row r="512" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
@@ -21656,7 +21670,7 @@
       <c r="AE512" s="4"/>
       <c r="AF512" s="4"/>
     </row>
-    <row r="513" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
@@ -21689,7 +21703,7 @@
       <c r="AE513" s="4"/>
       <c r="AF513" s="4"/>
     </row>
-    <row r="514" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
@@ -21722,7 +21736,7 @@
       <c r="AE514" s="4"/>
       <c r="AF514" s="4"/>
     </row>
-    <row r="515" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
@@ -21755,7 +21769,7 @@
       <c r="AE515" s="4"/>
       <c r="AF515" s="4"/>
     </row>
-    <row r="516" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
@@ -21788,7 +21802,7 @@
       <c r="AE516" s="4"/>
       <c r="AF516" s="4"/>
     </row>
-    <row r="517" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
@@ -21821,7 +21835,7 @@
       <c r="AE517" s="4"/>
       <c r="AF517" s="4"/>
     </row>
-    <row r="518" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
@@ -21854,7 +21868,7 @@
       <c r="AE518" s="4"/>
       <c r="AF518" s="4"/>
     </row>
-    <row r="519" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
@@ -21887,7 +21901,7 @@
       <c r="AE519" s="4"/>
       <c r="AF519" s="4"/>
     </row>
-    <row r="520" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
@@ -21920,7 +21934,7 @@
       <c r="AE520" s="4"/>
       <c r="AF520" s="4"/>
     </row>
-    <row r="521" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
@@ -21953,7 +21967,7 @@
       <c r="AE521" s="4"/>
       <c r="AF521" s="4"/>
     </row>
-    <row r="522" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
@@ -21986,7 +22000,7 @@
       <c r="AE522" s="4"/>
       <c r="AF522" s="4"/>
     </row>
-    <row r="523" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
@@ -22019,7 +22033,7 @@
       <c r="AE523" s="4"/>
       <c r="AF523" s="4"/>
     </row>
-    <row r="524" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
@@ -22052,7 +22066,7 @@
       <c r="AE524" s="4"/>
       <c r="AF524" s="4"/>
     </row>
-    <row r="525" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
@@ -22085,7 +22099,7 @@
       <c r="AE525" s="4"/>
       <c r="AF525" s="4"/>
     </row>
-    <row r="526" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
@@ -22118,7 +22132,7 @@
       <c r="AE526" s="4"/>
       <c r="AF526" s="4"/>
     </row>
-    <row r="527" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
@@ -22151,7 +22165,7 @@
       <c r="AE527" s="4"/>
       <c r="AF527" s="4"/>
     </row>
-    <row r="528" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
@@ -22184,7 +22198,7 @@
       <c r="AE528" s="4"/>
       <c r="AF528" s="4"/>
     </row>
-    <row r="529" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
@@ -22217,7 +22231,7 @@
       <c r="AE529" s="4"/>
       <c r="AF529" s="4"/>
     </row>
-    <row r="530" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
@@ -22250,7 +22264,7 @@
       <c r="AE530" s="4"/>
       <c r="AF530" s="4"/>
     </row>
-    <row r="531" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
@@ -22283,7 +22297,7 @@
       <c r="AE531" s="4"/>
       <c r="AF531" s="4"/>
     </row>
-    <row r="532" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
@@ -22316,7 +22330,7 @@
       <c r="AE532" s="4"/>
       <c r="AF532" s="4"/>
     </row>
-    <row r="533" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
@@ -22349,7 +22363,7 @@
       <c r="AE533" s="4"/>
       <c r="AF533" s="4"/>
     </row>
-    <row r="534" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
@@ -22382,7 +22396,7 @@
       <c r="AE534" s="4"/>
       <c r="AF534" s="4"/>
     </row>
-    <row r="535" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
@@ -22415,7 +22429,7 @@
       <c r="AE535" s="4"/>
       <c r="AF535" s="4"/>
     </row>
-    <row r="536" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
@@ -22448,7 +22462,7 @@
       <c r="AE536" s="4"/>
       <c r="AF536" s="4"/>
     </row>
-    <row r="537" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
@@ -22481,7 +22495,7 @@
       <c r="AE537" s="4"/>
       <c r="AF537" s="4"/>
     </row>
-    <row r="538" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
@@ -22514,7 +22528,7 @@
       <c r="AE538" s="4"/>
       <c r="AF538" s="4"/>
     </row>
-    <row r="539" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
@@ -22547,7 +22561,7 @@
       <c r="AE539" s="4"/>
       <c r="AF539" s="4"/>
     </row>
-    <row r="540" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
@@ -22580,7 +22594,7 @@
       <c r="AE540" s="4"/>
       <c r="AF540" s="4"/>
     </row>
-    <row r="541" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
@@ -22613,7 +22627,7 @@
       <c r="AE541" s="4"/>
       <c r="AF541" s="4"/>
     </row>
-    <row r="542" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
@@ -22646,7 +22660,7 @@
       <c r="AE542" s="4"/>
       <c r="AF542" s="4"/>
     </row>
-    <row r="543" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
@@ -22679,7 +22693,7 @@
       <c r="AE543" s="4"/>
       <c r="AF543" s="4"/>
     </row>
-    <row r="544" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
@@ -22712,7 +22726,7 @@
       <c r="AE544" s="4"/>
       <c r="AF544" s="4"/>
     </row>
-    <row r="545" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
@@ -22745,7 +22759,7 @@
       <c r="AE545" s="4"/>
       <c r="AF545" s="4"/>
     </row>
-    <row r="546" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
@@ -22778,7 +22792,7 @@
       <c r="AE546" s="4"/>
       <c r="AF546" s="4"/>
     </row>
-    <row r="547" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
@@ -22811,7 +22825,7 @@
       <c r="AE547" s="4"/>
       <c r="AF547" s="4"/>
     </row>
-    <row r="548" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
@@ -22844,7 +22858,7 @@
       <c r="AE548" s="4"/>
       <c r="AF548" s="4"/>
     </row>
-    <row r="549" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
@@ -22877,7 +22891,7 @@
       <c r="AE549" s="4"/>
       <c r="AF549" s="4"/>
     </row>
-    <row r="550" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
@@ -22910,7 +22924,7 @@
       <c r="AE550" s="4"/>
       <c r="AF550" s="4"/>
     </row>
-    <row r="551" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
@@ -22943,7 +22957,7 @@
       <c r="AE551" s="4"/>
       <c r="AF551" s="4"/>
     </row>
-    <row r="552" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
@@ -22976,7 +22990,7 @@
       <c r="AE552" s="4"/>
       <c r="AF552" s="4"/>
     </row>
-    <row r="553" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
@@ -23009,7 +23023,7 @@
       <c r="AE553" s="4"/>
       <c r="AF553" s="4"/>
     </row>
-    <row r="554" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
@@ -23042,7 +23056,7 @@
       <c r="AE554" s="4"/>
       <c r="AF554" s="4"/>
     </row>
-    <row r="555" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
@@ -23075,7 +23089,7 @@
       <c r="AE555" s="4"/>
       <c r="AF555" s="4"/>
     </row>
-    <row r="556" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
@@ -23108,7 +23122,7 @@
       <c r="AE556" s="4"/>
       <c r="AF556" s="4"/>
     </row>
-    <row r="557" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
@@ -23141,7 +23155,7 @@
       <c r="AE557" s="4"/>
       <c r="AF557" s="4"/>
     </row>
-    <row r="558" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
@@ -23174,7 +23188,7 @@
       <c r="AE558" s="4"/>
       <c r="AF558" s="4"/>
     </row>
-    <row r="559" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
@@ -23207,7 +23221,7 @@
       <c r="AE559" s="4"/>
       <c r="AF559" s="4"/>
     </row>
-    <row r="560" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
@@ -23240,7 +23254,7 @@
       <c r="AE560" s="4"/>
       <c r="AF560" s="4"/>
     </row>
-    <row r="561" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
@@ -23273,7 +23287,7 @@
       <c r="AE561" s="4"/>
       <c r="AF561" s="4"/>
     </row>
-    <row r="562" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
@@ -23306,7 +23320,7 @@
       <c r="AE562" s="4"/>
       <c r="AF562" s="4"/>
     </row>
-    <row r="563" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -23339,7 +23353,7 @@
       <c r="AE563" s="4"/>
       <c r="AF563" s="4"/>
     </row>
-    <row r="564" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
@@ -23372,7 +23386,7 @@
       <c r="AE564" s="4"/>
       <c r="AF564" s="4"/>
     </row>
-    <row r="565" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
@@ -23405,7 +23419,7 @@
       <c r="AE565" s="4"/>
       <c r="AF565" s="4"/>
     </row>
-    <row r="566" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
@@ -23438,7 +23452,7 @@
       <c r="AE566" s="4"/>
       <c r="AF566" s="4"/>
     </row>
-    <row r="567" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
@@ -23471,7 +23485,7 @@
       <c r="AE567" s="4"/>
       <c r="AF567" s="4"/>
     </row>
-    <row r="568" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
@@ -23504,7 +23518,7 @@
       <c r="AE568" s="4"/>
       <c r="AF568" s="4"/>
     </row>
-    <row r="569" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
@@ -23537,7 +23551,7 @@
       <c r="AE569" s="4"/>
       <c r="AF569" s="4"/>
     </row>
-    <row r="570" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
@@ -23570,7 +23584,7 @@
       <c r="AE570" s="4"/>
       <c r="AF570" s="4"/>
     </row>
-    <row r="571" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
@@ -23603,7 +23617,7 @@
       <c r="AE571" s="4"/>
       <c r="AF571" s="4"/>
     </row>
-    <row r="572" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
@@ -23636,7 +23650,7 @@
       <c r="AE572" s="4"/>
       <c r="AF572" s="4"/>
     </row>
-    <row r="573" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
@@ -23669,7 +23683,7 @@
       <c r="AE573" s="4"/>
       <c r="AF573" s="4"/>
     </row>
-    <row r="574" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
@@ -23702,7 +23716,7 @@
       <c r="AE574" s="4"/>
       <c r="AF574" s="4"/>
     </row>
-    <row r="575" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
@@ -23735,7 +23749,7 @@
       <c r="AE575" s="4"/>
       <c r="AF575" s="4"/>
     </row>
-    <row r="576" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
@@ -23768,7 +23782,7 @@
       <c r="AE576" s="4"/>
       <c r="AF576" s="4"/>
     </row>
-    <row r="577" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
@@ -23801,7 +23815,7 @@
       <c r="AE577" s="4"/>
       <c r="AF577" s="4"/>
     </row>
-    <row r="578" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
@@ -23834,7 +23848,7 @@
       <c r="AE578" s="4"/>
       <c r="AF578" s="4"/>
     </row>
-    <row r="579" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
@@ -23867,7 +23881,7 @@
       <c r="AE579" s="4"/>
       <c r="AF579" s="4"/>
     </row>
-    <row r="580" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
@@ -23900,7 +23914,7 @@
       <c r="AE580" s="4"/>
       <c r="AF580" s="4"/>
     </row>
-    <row r="581" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
@@ -23933,7 +23947,7 @@
       <c r="AE581" s="4"/>
       <c r="AF581" s="4"/>
     </row>
-    <row r="582" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
@@ -23966,7 +23980,7 @@
       <c r="AE582" s="4"/>
       <c r="AF582" s="4"/>
     </row>
-    <row r="583" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
@@ -23999,7 +24013,7 @@
       <c r="AE583" s="4"/>
       <c r="AF583" s="4"/>
     </row>
-    <row r="584" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
@@ -24032,7 +24046,7 @@
       <c r="AE584" s="4"/>
       <c r="AF584" s="4"/>
     </row>
-    <row r="585" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
@@ -24065,7 +24079,7 @@
       <c r="AE585" s="4"/>
       <c r="AF585" s="4"/>
     </row>
-    <row r="586" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
@@ -24098,7 +24112,7 @@
       <c r="AE586" s="4"/>
       <c r="AF586" s="4"/>
     </row>
-    <row r="587" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
@@ -24131,7 +24145,7 @@
       <c r="AE587" s="4"/>
       <c r="AF587" s="4"/>
     </row>
-    <row r="588" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
@@ -24164,7 +24178,7 @@
       <c r="AE588" s="4"/>
       <c r="AF588" s="4"/>
     </row>
-    <row r="589" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
@@ -24197,7 +24211,7 @@
       <c r="AE589" s="4"/>
       <c r="AF589" s="4"/>
     </row>
-    <row r="590" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
@@ -24230,7 +24244,7 @@
       <c r="AE590" s="4"/>
       <c r="AF590" s="4"/>
     </row>
-    <row r="591" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
@@ -24263,7 +24277,7 @@
       <c r="AE591" s="4"/>
       <c r="AF591" s="4"/>
     </row>
-    <row r="592" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
@@ -24296,7 +24310,7 @@
       <c r="AE592" s="4"/>
       <c r="AF592" s="4"/>
     </row>
-    <row r="593" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
@@ -24329,7 +24343,7 @@
       <c r="AE593" s="4"/>
       <c r="AF593" s="4"/>
     </row>
-    <row r="594" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
@@ -24362,7 +24376,7 @@
       <c r="AE594" s="4"/>
       <c r="AF594" s="4"/>
     </row>
-    <row r="595" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
@@ -24395,7 +24409,7 @@
       <c r="AE595" s="4"/>
       <c r="AF595" s="4"/>
     </row>
-    <row r="596" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
@@ -24428,7 +24442,7 @@
       <c r="AE596" s="4"/>
       <c r="AF596" s="4"/>
     </row>
-    <row r="597" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
@@ -24461,7 +24475,7 @@
       <c r="AE597" s="4"/>
       <c r="AF597" s="4"/>
     </row>
-    <row r="598" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
@@ -24494,7 +24508,7 @@
       <c r="AE598" s="4"/>
       <c r="AF598" s="4"/>
     </row>
-    <row r="599" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
@@ -24527,7 +24541,7 @@
       <c r="AE599" s="4"/>
       <c r="AF599" s="4"/>
     </row>
-    <row r="600" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
@@ -24560,7 +24574,7 @@
       <c r="AE600" s="4"/>
       <c r="AF600" s="4"/>
     </row>
-    <row r="601" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
@@ -24593,7 +24607,7 @@
       <c r="AE601" s="4"/>
       <c r="AF601" s="4"/>
     </row>
-    <row r="602" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
@@ -24626,7 +24640,7 @@
       <c r="AE602" s="4"/>
       <c r="AF602" s="4"/>
     </row>
-    <row r="603" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
@@ -24659,7 +24673,7 @@
       <c r="AE603" s="4"/>
       <c r="AF603" s="4"/>
     </row>
-    <row r="604" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
@@ -24692,7 +24706,7 @@
       <c r="AE604" s="4"/>
       <c r="AF604" s="4"/>
     </row>
-    <row r="605" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
@@ -24725,7 +24739,7 @@
       <c r="AE605" s="4"/>
       <c r="AF605" s="4"/>
     </row>
-    <row r="606" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
@@ -24758,7 +24772,7 @@
       <c r="AE606" s="4"/>
       <c r="AF606" s="4"/>
     </row>
-    <row r="607" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
@@ -24791,7 +24805,7 @@
       <c r="AE607" s="4"/>
       <c r="AF607" s="4"/>
     </row>
-    <row r="608" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
@@ -24824,7 +24838,7 @@
       <c r="AE608" s="4"/>
       <c r="AF608" s="4"/>
     </row>
-    <row r="609" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
@@ -24857,7 +24871,7 @@
       <c r="AE609" s="4"/>
       <c r="AF609" s="4"/>
     </row>
-    <row r="610" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
@@ -24890,7 +24904,7 @@
       <c r="AE610" s="4"/>
       <c r="AF610" s="4"/>
     </row>
-    <row r="611" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
@@ -24923,7 +24937,7 @@
       <c r="AE611" s="4"/>
       <c r="AF611" s="4"/>
     </row>
-    <row r="612" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
@@ -24956,7 +24970,7 @@
       <c r="AE612" s="4"/>
       <c r="AF612" s="4"/>
     </row>
-    <row r="613" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
@@ -24989,7 +25003,7 @@
       <c r="AE613" s="4"/>
       <c r="AF613" s="4"/>
     </row>
-    <row r="614" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
@@ -25022,7 +25036,7 @@
       <c r="AE614" s="4"/>
       <c r="AF614" s="4"/>
     </row>
-    <row r="615" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
@@ -25055,7 +25069,7 @@
       <c r="AE615" s="4"/>
       <c r="AF615" s="4"/>
     </row>
-    <row r="616" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
@@ -25088,7 +25102,7 @@
       <c r="AE616" s="4"/>
       <c r="AF616" s="4"/>
     </row>
-    <row r="617" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
@@ -25121,7 +25135,7 @@
       <c r="AE617" s="4"/>
       <c r="AF617" s="4"/>
     </row>
-    <row r="618" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
@@ -25154,7 +25168,7 @@
       <c r="AE618" s="4"/>
       <c r="AF618" s="4"/>
     </row>
-    <row r="619" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
@@ -25187,7 +25201,7 @@
       <c r="AE619" s="4"/>
       <c r="AF619" s="4"/>
     </row>
-    <row r="620" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
@@ -25220,7 +25234,7 @@
       <c r="AE620" s="4"/>
       <c r="AF620" s="4"/>
     </row>
-    <row r="621" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
@@ -25253,7 +25267,7 @@
       <c r="AE621" s="4"/>
       <c r="AF621" s="4"/>
     </row>
-    <row r="622" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
@@ -25286,7 +25300,7 @@
       <c r="AE622" s="4"/>
       <c r="AF622" s="4"/>
     </row>
-    <row r="623" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
@@ -25319,7 +25333,7 @@
       <c r="AE623" s="4"/>
       <c r="AF623" s="4"/>
     </row>
-    <row r="624" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
@@ -25352,7 +25366,7 @@
       <c r="AE624" s="4"/>
       <c r="AF624" s="4"/>
     </row>
-    <row r="625" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
@@ -25385,7 +25399,7 @@
       <c r="AE625" s="4"/>
       <c r="AF625" s="4"/>
     </row>
-    <row r="626" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
@@ -25418,7 +25432,7 @@
       <c r="AE626" s="4"/>
       <c r="AF626" s="4"/>
     </row>
-    <row r="627" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
@@ -25451,7 +25465,7 @@
       <c r="AE627" s="4"/>
       <c r="AF627" s="4"/>
     </row>
-    <row r="628" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
@@ -25484,7 +25498,7 @@
       <c r="AE628" s="4"/>
       <c r="AF628" s="4"/>
     </row>
-    <row r="629" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
@@ -25517,7 +25531,7 @@
       <c r="AE629" s="4"/>
       <c r="AF629" s="4"/>
     </row>
-    <row r="630" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
@@ -25550,7 +25564,7 @@
       <c r="AE630" s="4"/>
       <c r="AF630" s="4"/>
     </row>
-    <row r="631" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
@@ -25583,7 +25597,7 @@
       <c r="AE631" s="4"/>
       <c r="AF631" s="4"/>
     </row>
-    <row r="632" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
@@ -25616,7 +25630,7 @@
       <c r="AE632" s="4"/>
       <c r="AF632" s="4"/>
     </row>
-    <row r="633" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
@@ -25649,7 +25663,7 @@
       <c r="AE633" s="4"/>
       <c r="AF633" s="4"/>
     </row>
-    <row r="634" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
@@ -25682,7 +25696,7 @@
       <c r="AE634" s="4"/>
       <c r="AF634" s="4"/>
     </row>
-    <row r="635" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
@@ -25715,7 +25729,7 @@
       <c r="AE635" s="4"/>
       <c r="AF635" s="4"/>
     </row>
-    <row r="636" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
@@ -25748,7 +25762,7 @@
       <c r="AE636" s="4"/>
       <c r="AF636" s="4"/>
     </row>
-    <row r="637" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
@@ -25781,7 +25795,7 @@
       <c r="AE637" s="4"/>
       <c r="AF637" s="4"/>
     </row>
-    <row r="638" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
@@ -25814,7 +25828,7 @@
       <c r="AE638" s="4"/>
       <c r="AF638" s="4"/>
     </row>
-    <row r="639" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
@@ -25847,7 +25861,7 @@
       <c r="AE639" s="4"/>
       <c r="AF639" s="4"/>
     </row>
-    <row r="640" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
@@ -25880,7 +25894,7 @@
       <c r="AE640" s="4"/>
       <c r="AF640" s="4"/>
     </row>
-    <row r="641" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
@@ -25913,7 +25927,7 @@
       <c r="AE641" s="4"/>
       <c r="AF641" s="4"/>
     </row>
-    <row r="642" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
@@ -25946,7 +25960,7 @@
       <c r="AE642" s="4"/>
       <c r="AF642" s="4"/>
     </row>
-    <row r="643" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
@@ -25979,7 +25993,7 @@
       <c r="AE643" s="4"/>
       <c r="AF643" s="4"/>
     </row>
-    <row r="644" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
@@ -26012,7 +26026,7 @@
       <c r="AE644" s="4"/>
       <c r="AF644" s="4"/>
     </row>
-    <row r="645" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
@@ -26045,7 +26059,7 @@
       <c r="AE645" s="4"/>
       <c r="AF645" s="4"/>
     </row>
-    <row r="646" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
@@ -26078,7 +26092,7 @@
       <c r="AE646" s="4"/>
       <c r="AF646" s="4"/>
     </row>
-    <row r="647" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
@@ -26111,7 +26125,7 @@
       <c r="AE647" s="4"/>
       <c r="AF647" s="4"/>
     </row>
-    <row r="648" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
@@ -26144,7 +26158,7 @@
       <c r="AE648" s="4"/>
       <c r="AF648" s="4"/>
     </row>
-    <row r="649" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
@@ -26177,7 +26191,7 @@
       <c r="AE649" s="4"/>
       <c r="AF649" s="4"/>
     </row>
-    <row r="650" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
@@ -26210,7 +26224,7 @@
       <c r="AE650" s="4"/>
       <c r="AF650" s="4"/>
     </row>
-    <row r="651" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
@@ -26243,7 +26257,7 @@
       <c r="AE651" s="4"/>
       <c r="AF651" s="4"/>
     </row>
-    <row r="652" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
@@ -26276,7 +26290,7 @@
       <c r="AE652" s="4"/>
       <c r="AF652" s="4"/>
     </row>
-    <row r="653" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
@@ -26309,7 +26323,7 @@
       <c r="AE653" s="4"/>
       <c r="AF653" s="4"/>
     </row>
-    <row r="654" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
@@ -26342,7 +26356,7 @@
       <c r="AE654" s="4"/>
       <c r="AF654" s="4"/>
     </row>
-    <row r="655" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
@@ -26375,7 +26389,7 @@
       <c r="AE655" s="4"/>
       <c r="AF655" s="4"/>
     </row>
-    <row r="656" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
@@ -26408,7 +26422,7 @@
       <c r="AE656" s="4"/>
       <c r="AF656" s="4"/>
     </row>
-    <row r="657" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
@@ -26441,7 +26455,7 @@
       <c r="AE657" s="4"/>
       <c r="AF657" s="4"/>
     </row>
-    <row r="658" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
@@ -26474,7 +26488,7 @@
       <c r="AE658" s="4"/>
       <c r="AF658" s="4"/>
     </row>
-    <row r="659" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
@@ -26507,7 +26521,7 @@
       <c r="AE659" s="4"/>
       <c r="AF659" s="4"/>
     </row>
-    <row r="660" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
@@ -26540,7 +26554,7 @@
       <c r="AE660" s="4"/>
       <c r="AF660" s="4"/>
     </row>
-    <row r="661" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
@@ -26573,7 +26587,7 @@
       <c r="AE661" s="4"/>
       <c r="AF661" s="4"/>
     </row>
-    <row r="662" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
@@ -26606,7 +26620,7 @@
       <c r="AE662" s="4"/>
       <c r="AF662" s="4"/>
     </row>
-    <row r="663" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
@@ -26639,7 +26653,7 @@
       <c r="AE663" s="4"/>
       <c r="AF663" s="4"/>
     </row>
-    <row r="664" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
@@ -26672,7 +26686,7 @@
       <c r="AE664" s="4"/>
       <c r="AF664" s="4"/>
     </row>
-    <row r="665" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
@@ -26705,7 +26719,7 @@
       <c r="AE665" s="4"/>
       <c r="AF665" s="4"/>
     </row>
-    <row r="666" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
@@ -26738,7 +26752,7 @@
       <c r="AE666" s="4"/>
       <c r="AF666" s="4"/>
     </row>
-    <row r="667" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
@@ -26771,7 +26785,7 @@
       <c r="AE667" s="4"/>
       <c r="AF667" s="4"/>
     </row>
-    <row r="668" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
@@ -26804,7 +26818,7 @@
       <c r="AE668" s="4"/>
       <c r="AF668" s="4"/>
     </row>
-    <row r="669" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
@@ -26837,7 +26851,7 @@
       <c r="AE669" s="4"/>
       <c r="AF669" s="4"/>
     </row>
-    <row r="670" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
@@ -26870,7 +26884,7 @@
       <c r="AE670" s="4"/>
       <c r="AF670" s="4"/>
     </row>
-    <row r="671" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
@@ -26903,7 +26917,7 @@
       <c r="AE671" s="4"/>
       <c r="AF671" s="4"/>
     </row>
-    <row r="672" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
@@ -26936,7 +26950,7 @@
       <c r="AE672" s="4"/>
       <c r="AF672" s="4"/>
     </row>
-    <row r="673" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
@@ -26969,7 +26983,7 @@
       <c r="AE673" s="4"/>
       <c r="AF673" s="4"/>
     </row>
-    <row r="674" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
@@ -27002,7 +27016,7 @@
       <c r="AE674" s="4"/>
       <c r="AF674" s="4"/>
     </row>
-    <row r="675" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
@@ -27035,7 +27049,7 @@
       <c r="AE675" s="4"/>
       <c r="AF675" s="4"/>
     </row>
-    <row r="676" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
@@ -27068,7 +27082,7 @@
       <c r="AE676" s="4"/>
       <c r="AF676" s="4"/>
     </row>
-    <row r="677" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
@@ -27101,7 +27115,7 @@
       <c r="AE677" s="4"/>
       <c r="AF677" s="4"/>
     </row>
-    <row r="678" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
@@ -27134,7 +27148,7 @@
       <c r="AE678" s="4"/>
       <c r="AF678" s="4"/>
     </row>
-    <row r="679" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
@@ -27167,7 +27181,7 @@
       <c r="AE679" s="4"/>
       <c r="AF679" s="4"/>
     </row>
-    <row r="680" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
@@ -27200,7 +27214,7 @@
       <c r="AE680" s="4"/>
       <c r="AF680" s="4"/>
     </row>
-    <row r="681" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
@@ -27233,7 +27247,7 @@
       <c r="AE681" s="4"/>
       <c r="AF681" s="4"/>
     </row>
-    <row r="682" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
@@ -27266,7 +27280,7 @@
       <c r="AE682" s="4"/>
       <c r="AF682" s="4"/>
     </row>
-    <row r="683" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
@@ -27299,7 +27313,7 @@
       <c r="AE683" s="4"/>
       <c r="AF683" s="4"/>
     </row>
-    <row r="684" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
@@ -27332,7 +27346,7 @@
       <c r="AE684" s="4"/>
       <c r="AF684" s="4"/>
     </row>
-    <row r="685" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
@@ -27365,7 +27379,7 @@
       <c r="AE685" s="4"/>
       <c r="AF685" s="4"/>
     </row>
-    <row r="686" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
@@ -27398,7 +27412,7 @@
       <c r="AE686" s="4"/>
       <c r="AF686" s="4"/>
     </row>
-    <row r="687" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
@@ -27431,7 +27445,7 @@
       <c r="AE687" s="4"/>
       <c r="AF687" s="4"/>
     </row>
-    <row r="688" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
@@ -27464,7 +27478,7 @@
       <c r="AE688" s="4"/>
       <c r="AF688" s="4"/>
     </row>
-    <row r="689" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
@@ -27497,7 +27511,7 @@
       <c r="AE689" s="4"/>
       <c r="AF689" s="4"/>
     </row>
-    <row r="690" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
@@ -27530,7 +27544,7 @@
       <c r="AE690" s="4"/>
       <c r="AF690" s="4"/>
     </row>
-    <row r="691" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
@@ -27563,7 +27577,7 @@
       <c r="AE691" s="4"/>
       <c r="AF691" s="4"/>
     </row>
-    <row r="692" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
@@ -27596,7 +27610,7 @@
       <c r="AE692" s="4"/>
       <c r="AF692" s="4"/>
     </row>
-    <row r="693" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
@@ -27629,7 +27643,7 @@
       <c r="AE693" s="4"/>
       <c r="AF693" s="4"/>
     </row>
-    <row r="694" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
@@ -27662,7 +27676,7 @@
       <c r="AE694" s="4"/>
       <c r="AF694" s="4"/>
     </row>
-    <row r="695" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
@@ -27695,7 +27709,7 @@
       <c r="AE695" s="4"/>
       <c r="AF695" s="4"/>
     </row>
-    <row r="696" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
@@ -27728,7 +27742,7 @@
       <c r="AE696" s="4"/>
       <c r="AF696" s="4"/>
     </row>
-    <row r="697" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
@@ -27761,7 +27775,7 @@
       <c r="AE697" s="4"/>
       <c r="AF697" s="4"/>
     </row>
-    <row r="698" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
@@ -27794,7 +27808,7 @@
       <c r="AE698" s="4"/>
       <c r="AF698" s="4"/>
     </row>
-    <row r="699" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
@@ -27827,7 +27841,7 @@
       <c r="AE699" s="4"/>
       <c r="AF699" s="4"/>
     </row>
-    <row r="700" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
@@ -27860,7 +27874,7 @@
       <c r="AE700" s="4"/>
       <c r="AF700" s="4"/>
     </row>
-    <row r="701" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
@@ -27893,7 +27907,7 @@
       <c r="AE701" s="4"/>
       <c r="AF701" s="4"/>
     </row>
-    <row r="702" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
@@ -27926,7 +27940,7 @@
       <c r="AE702" s="4"/>
       <c r="AF702" s="4"/>
     </row>
-    <row r="703" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
@@ -27959,7 +27973,7 @@
       <c r="AE703" s="4"/>
       <c r="AF703" s="4"/>
     </row>
-    <row r="704" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
@@ -27992,7 +28006,7 @@
       <c r="AE704" s="4"/>
       <c r="AF704" s="4"/>
     </row>
-    <row r="705" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
@@ -28025,7 +28039,7 @@
       <c r="AE705" s="4"/>
       <c r="AF705" s="4"/>
     </row>
-    <row r="706" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
@@ -28058,7 +28072,7 @@
       <c r="AE706" s="4"/>
       <c r="AF706" s="4"/>
     </row>
-    <row r="707" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
@@ -28091,7 +28105,7 @@
       <c r="AE707" s="4"/>
       <c r="AF707" s="4"/>
     </row>
-    <row r="708" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
@@ -28124,7 +28138,7 @@
       <c r="AE708" s="4"/>
       <c r="AF708" s="4"/>
     </row>
-    <row r="709" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
@@ -28157,7 +28171,7 @@
       <c r="AE709" s="4"/>
       <c r="AF709" s="4"/>
     </row>
-    <row r="710" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
@@ -28190,7 +28204,7 @@
       <c r="AE710" s="4"/>
       <c r="AF710" s="4"/>
     </row>
-    <row r="711" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
@@ -28223,7 +28237,7 @@
       <c r="AE711" s="4"/>
       <c r="AF711" s="4"/>
     </row>
-    <row r="712" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
@@ -28256,7 +28270,7 @@
       <c r="AE712" s="4"/>
       <c r="AF712" s="4"/>
     </row>
-    <row r="713" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
@@ -28289,7 +28303,7 @@
       <c r="AE713" s="4"/>
       <c r="AF713" s="4"/>
     </row>
-    <row r="714" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
@@ -28322,7 +28336,7 @@
       <c r="AE714" s="4"/>
       <c r="AF714" s="4"/>
     </row>
-    <row r="715" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
@@ -28355,7 +28369,7 @@
       <c r="AE715" s="4"/>
       <c r="AF715" s="4"/>
     </row>
-    <row r="716" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
@@ -28388,7 +28402,7 @@
       <c r="AE716" s="4"/>
       <c r="AF716" s="4"/>
     </row>
-    <row r="717" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
@@ -28421,7 +28435,7 @@
       <c r="AE717" s="4"/>
       <c r="AF717" s="4"/>
     </row>
-    <row r="718" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
@@ -28454,7 +28468,7 @@
       <c r="AE718" s="4"/>
       <c r="AF718" s="4"/>
     </row>
-    <row r="719" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
@@ -28487,7 +28501,7 @@
       <c r="AE719" s="4"/>
       <c r="AF719" s="4"/>
     </row>
-    <row r="720" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
@@ -28520,7 +28534,7 @@
       <c r="AE720" s="4"/>
       <c r="AF720" s="4"/>
     </row>
-    <row r="721" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
@@ -28553,7 +28567,7 @@
       <c r="AE721" s="4"/>
       <c r="AF721" s="4"/>
     </row>
-    <row r="722" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
@@ -28586,7 +28600,7 @@
       <c r="AE722" s="4"/>
       <c r="AF722" s="4"/>
     </row>
-    <row r="723" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
@@ -28619,7 +28633,7 @@
       <c r="AE723" s="4"/>
       <c r="AF723" s="4"/>
     </row>
-    <row r="724" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
@@ -28652,7 +28666,7 @@
       <c r="AE724" s="4"/>
       <c r="AF724" s="4"/>
     </row>
-    <row r="725" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
@@ -28685,7 +28699,7 @@
       <c r="AE725" s="4"/>
       <c r="AF725" s="4"/>
     </row>
-    <row r="726" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
@@ -28718,7 +28732,7 @@
       <c r="AE726" s="4"/>
       <c r="AF726" s="4"/>
     </row>
-    <row r="727" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
@@ -28751,7 +28765,7 @@
       <c r="AE727" s="4"/>
       <c r="AF727" s="4"/>
     </row>
-    <row r="728" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
@@ -28784,7 +28798,7 @@
       <c r="AE728" s="4"/>
       <c r="AF728" s="4"/>
     </row>
-    <row r="729" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
@@ -28817,7 +28831,7 @@
       <c r="AE729" s="4"/>
       <c r="AF729" s="4"/>
     </row>
-    <row r="730" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
@@ -28850,7 +28864,7 @@
       <c r="AE730" s="4"/>
       <c r="AF730" s="4"/>
     </row>
-    <row r="731" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
@@ -28883,7 +28897,7 @@
       <c r="AE731" s="4"/>
       <c r="AF731" s="4"/>
     </row>
-    <row r="732" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
@@ -28916,7 +28930,7 @@
       <c r="AE732" s="4"/>
       <c r="AF732" s="4"/>
     </row>
-    <row r="733" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
@@ -28949,7 +28963,7 @@
       <c r="AE733" s="4"/>
       <c r="AF733" s="4"/>
     </row>
-    <row r="734" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
@@ -28982,7 +28996,7 @@
       <c r="AE734" s="4"/>
       <c r="AF734" s="4"/>
     </row>
-    <row r="735" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
@@ -29015,7 +29029,7 @@
       <c r="AE735" s="4"/>
       <c r="AF735" s="4"/>
     </row>
-    <row r="736" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
@@ -29048,7 +29062,7 @@
       <c r="AE736" s="4"/>
       <c r="AF736" s="4"/>
     </row>
-    <row r="737" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
@@ -29081,7 +29095,7 @@
       <c r="AE737" s="4"/>
       <c r="AF737" s="4"/>
     </row>
-    <row r="738" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
@@ -29114,7 +29128,7 @@
       <c r="AE738" s="4"/>
       <c r="AF738" s="4"/>
     </row>
-    <row r="739" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
@@ -29147,7 +29161,7 @@
       <c r="AE739" s="4"/>
       <c r="AF739" s="4"/>
     </row>
-    <row r="740" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
@@ -29180,7 +29194,7 @@
       <c r="AE740" s="4"/>
       <c r="AF740" s="4"/>
     </row>
-    <row r="741" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
@@ -29213,7 +29227,7 @@
       <c r="AE741" s="4"/>
       <c r="AF741" s="4"/>
     </row>
-    <row r="742" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
@@ -29246,7 +29260,7 @@
       <c r="AE742" s="4"/>
       <c r="AF742" s="4"/>
     </row>
-    <row r="743" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
@@ -29279,7 +29293,7 @@
       <c r="AE743" s="4"/>
       <c r="AF743" s="4"/>
     </row>
-    <row r="744" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
@@ -29312,7 +29326,7 @@
       <c r="AE744" s="4"/>
       <c r="AF744" s="4"/>
     </row>
-    <row r="745" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
@@ -29345,7 +29359,7 @@
       <c r="AE745" s="4"/>
       <c r="AF745" s="4"/>
     </row>
-    <row r="746" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
@@ -29378,7 +29392,7 @@
       <c r="AE746" s="4"/>
       <c r="AF746" s="4"/>
     </row>
-    <row r="747" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
@@ -29411,7 +29425,7 @@
       <c r="AE747" s="4"/>
       <c r="AF747" s="4"/>
     </row>
-    <row r="748" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
@@ -29444,7 +29458,7 @@
       <c r="AE748" s="4"/>
       <c r="AF748" s="4"/>
     </row>
-    <row r="749" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
@@ -29477,7 +29491,7 @@
       <c r="AE749" s="4"/>
       <c r="AF749" s="4"/>
     </row>
-    <row r="750" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
@@ -29510,7 +29524,7 @@
       <c r="AE750" s="4"/>
       <c r="AF750" s="4"/>
     </row>
-    <row r="751" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
@@ -29543,7 +29557,7 @@
       <c r="AE751" s="4"/>
       <c r="AF751" s="4"/>
     </row>
-    <row r="752" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
@@ -29576,7 +29590,7 @@
       <c r="AE752" s="4"/>
       <c r="AF752" s="4"/>
     </row>
-    <row r="753" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
@@ -29609,7 +29623,7 @@
       <c r="AE753" s="4"/>
       <c r="AF753" s="4"/>
     </row>
-    <row r="754" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
@@ -29642,7 +29656,7 @@
       <c r="AE754" s="4"/>
       <c r="AF754" s="4"/>
     </row>
-    <row r="755" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
@@ -29675,7 +29689,7 @@
       <c r="AE755" s="4"/>
       <c r="AF755" s="4"/>
     </row>
-    <row r="756" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
@@ -29708,7 +29722,7 @@
       <c r="AE756" s="4"/>
       <c r="AF756" s="4"/>
     </row>
-    <row r="757" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
@@ -29741,7 +29755,7 @@
       <c r="AE757" s="4"/>
       <c r="AF757" s="4"/>
     </row>
-    <row r="758" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
@@ -29774,7 +29788,7 @@
       <c r="AE758" s="4"/>
       <c r="AF758" s="4"/>
     </row>
-    <row r="759" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
@@ -29807,7 +29821,7 @@
       <c r="AE759" s="4"/>
       <c r="AF759" s="4"/>
     </row>
-    <row r="760" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
@@ -29840,7 +29854,7 @@
       <c r="AE760" s="4"/>
       <c r="AF760" s="4"/>
     </row>
-    <row r="761" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
@@ -29873,7 +29887,7 @@
       <c r="AE761" s="4"/>
       <c r="AF761" s="4"/>
     </row>
-    <row r="762" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
@@ -29906,7 +29920,7 @@
       <c r="AE762" s="4"/>
       <c r="AF762" s="4"/>
     </row>
-    <row r="763" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
@@ -29939,7 +29953,7 @@
       <c r="AE763" s="4"/>
       <c r="AF763" s="4"/>
     </row>
-    <row r="764" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
@@ -29972,7 +29986,7 @@
       <c r="AE764" s="4"/>
       <c r="AF764" s="4"/>
     </row>
-    <row r="765" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
@@ -30005,7 +30019,7 @@
       <c r="AE765" s="4"/>
       <c r="AF765" s="4"/>
     </row>
-    <row r="766" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
@@ -30038,7 +30052,7 @@
       <c r="AE766" s="4"/>
       <c r="AF766" s="4"/>
     </row>
-    <row r="767" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
@@ -30071,7 +30085,7 @@
       <c r="AE767" s="4"/>
       <c r="AF767" s="4"/>
     </row>
-    <row r="768" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
@@ -30104,7 +30118,7 @@
       <c r="AE768" s="4"/>
       <c r="AF768" s="4"/>
     </row>
-    <row r="769" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
@@ -30137,7 +30151,7 @@
       <c r="AE769" s="4"/>
       <c r="AF769" s="4"/>
     </row>
-    <row r="770" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
@@ -30170,7 +30184,7 @@
       <c r="AE770" s="4"/>
       <c r="AF770" s="4"/>
     </row>
-    <row r="771" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
@@ -30203,7 +30217,7 @@
       <c r="AE771" s="4"/>
       <c r="AF771" s="4"/>
     </row>
-    <row r="772" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
@@ -30236,7 +30250,7 @@
       <c r="AE772" s="4"/>
       <c r="AF772" s="4"/>
     </row>
-    <row r="773" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
@@ -30269,7 +30283,7 @@
       <c r="AE773" s="4"/>
       <c r="AF773" s="4"/>
     </row>
-    <row r="774" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
@@ -30302,7 +30316,7 @@
       <c r="AE774" s="4"/>
       <c r="AF774" s="4"/>
     </row>
-    <row r="775" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
@@ -30335,7 +30349,7 @@
       <c r="AE775" s="4"/>
       <c r="AF775" s="4"/>
     </row>
-    <row r="776" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
@@ -30368,7 +30382,7 @@
       <c r="AE776" s="4"/>
       <c r="AF776" s="4"/>
     </row>
-    <row r="777" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
@@ -30401,7 +30415,7 @@
       <c r="AE777" s="4"/>
       <c r="AF777" s="4"/>
     </row>
-    <row r="778" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
@@ -30434,7 +30448,7 @@
       <c r="AE778" s="4"/>
       <c r="AF778" s="4"/>
     </row>
-    <row r="779" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
@@ -30467,7 +30481,7 @@
       <c r="AE779" s="4"/>
       <c r="AF779" s="4"/>
     </row>
-    <row r="780" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
@@ -30500,7 +30514,7 @@
       <c r="AE780" s="4"/>
       <c r="AF780" s="4"/>
     </row>
-    <row r="781" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
@@ -30533,7 +30547,7 @@
       <c r="AE781" s="4"/>
       <c r="AF781" s="4"/>
     </row>
-    <row r="782" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
@@ -30566,7 +30580,7 @@
       <c r="AE782" s="4"/>
       <c r="AF782" s="4"/>
     </row>
-    <row r="783" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
@@ -30599,7 +30613,7 @@
       <c r="AE783" s="4"/>
       <c r="AF783" s="4"/>
     </row>
-    <row r="784" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
@@ -30632,7 +30646,7 @@
       <c r="AE784" s="4"/>
       <c r="AF784" s="4"/>
     </row>
-    <row r="785" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
@@ -30665,7 +30679,7 @@
       <c r="AE785" s="4"/>
       <c r="AF785" s="4"/>
     </row>
-    <row r="786" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
@@ -30698,7 +30712,7 @@
       <c r="AE786" s="4"/>
       <c r="AF786" s="4"/>
     </row>
-    <row r="787" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
@@ -30731,7 +30745,7 @@
       <c r="AE787" s="4"/>
       <c r="AF787" s="4"/>
     </row>
-    <row r="788" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
@@ -30764,7 +30778,7 @@
       <c r="AE788" s="4"/>
       <c r="AF788" s="4"/>
     </row>
-    <row r="789" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
@@ -30797,7 +30811,7 @@
       <c r="AE789" s="4"/>
       <c r="AF789" s="4"/>
     </row>
-    <row r="790" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
@@ -30830,7 +30844,7 @@
       <c r="AE790" s="4"/>
       <c r="AF790" s="4"/>
     </row>
-    <row r="791" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
@@ -30863,7 +30877,7 @@
       <c r="AE791" s="4"/>
       <c r="AF791" s="4"/>
     </row>
-    <row r="792" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
@@ -30896,7 +30910,7 @@
       <c r="AE792" s="4"/>
       <c r="AF792" s="4"/>
     </row>
-    <row r="793" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
@@ -30929,7 +30943,7 @@
       <c r="AE793" s="4"/>
       <c r="AF793" s="4"/>
     </row>
-    <row r="794" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
@@ -30962,7 +30976,7 @@
       <c r="AE794" s="4"/>
       <c r="AF794" s="4"/>
     </row>
-    <row r="795" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
@@ -30995,7 +31009,7 @@
       <c r="AE795" s="4"/>
       <c r="AF795" s="4"/>
     </row>
-    <row r="796" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
@@ -31028,7 +31042,7 @@
       <c r="AE796" s="4"/>
       <c r="AF796" s="4"/>
     </row>
-    <row r="797" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
@@ -31061,7 +31075,7 @@
       <c r="AE797" s="4"/>
       <c r="AF797" s="4"/>
     </row>
-    <row r="798" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
@@ -31094,7 +31108,7 @@
       <c r="AE798" s="4"/>
       <c r="AF798" s="4"/>
     </row>
-    <row r="799" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
@@ -31127,7 +31141,7 @@
       <c r="AE799" s="4"/>
       <c r="AF799" s="4"/>
     </row>
-    <row r="800" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
@@ -31160,7 +31174,7 @@
       <c r="AE800" s="4"/>
       <c r="AF800" s="4"/>
     </row>
-    <row r="801" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
@@ -31193,7 +31207,7 @@
       <c r="AE801" s="4"/>
       <c r="AF801" s="4"/>
     </row>
-    <row r="802" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
@@ -31226,7 +31240,7 @@
       <c r="AE802" s="4"/>
       <c r="AF802" s="4"/>
     </row>
-    <row r="803" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
@@ -31259,7 +31273,7 @@
       <c r="AE803" s="4"/>
       <c r="AF803" s="4"/>
     </row>
-    <row r="804" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
@@ -31292,7 +31306,7 @@
       <c r="AE804" s="4"/>
       <c r="AF804" s="4"/>
     </row>
-    <row r="805" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
@@ -31325,7 +31339,7 @@
       <c r="AE805" s="4"/>
       <c r="AF805" s="4"/>
     </row>
-    <row r="806" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
@@ -31358,7 +31372,7 @@
       <c r="AE806" s="4"/>
       <c r="AF806" s="4"/>
     </row>
-    <row r="807" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
@@ -31391,7 +31405,7 @@
       <c r="AE807" s="4"/>
       <c r="AF807" s="4"/>
     </row>
-    <row r="808" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
@@ -31424,7 +31438,7 @@
       <c r="AE808" s="4"/>
       <c r="AF808" s="4"/>
     </row>
-    <row r="809" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
@@ -31457,7 +31471,7 @@
       <c r="AE809" s="4"/>
       <c r="AF809" s="4"/>
     </row>
-    <row r="810" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
@@ -31490,7 +31504,7 @@
       <c r="AE810" s="4"/>
       <c r="AF810" s="4"/>
     </row>
-    <row r="811" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
@@ -31523,7 +31537,7 @@
       <c r="AE811" s="4"/>
       <c r="AF811" s="4"/>
     </row>
-    <row r="812" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
@@ -31556,7 +31570,7 @@
       <c r="AE812" s="4"/>
       <c r="AF812" s="4"/>
     </row>
-    <row r="813" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
@@ -31589,7 +31603,7 @@
       <c r="AE813" s="4"/>
       <c r="AF813" s="4"/>
     </row>
-    <row r="814" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
@@ -31622,7 +31636,7 @@
       <c r="AE814" s="4"/>
       <c r="AF814" s="4"/>
     </row>
-    <row r="815" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
@@ -31655,7 +31669,7 @@
       <c r="AE815" s="4"/>
       <c r="AF815" s="4"/>
     </row>
-    <row r="816" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
@@ -31688,7 +31702,7 @@
       <c r="AE816" s="4"/>
       <c r="AF816" s="4"/>
     </row>
-    <row r="817" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
@@ -31721,7 +31735,7 @@
       <c r="AE817" s="4"/>
       <c r="AF817" s="4"/>
     </row>
-    <row r="818" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
@@ -31754,7 +31768,7 @@
       <c r="AE818" s="4"/>
       <c r="AF818" s="4"/>
     </row>
-    <row r="819" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
@@ -31787,7 +31801,7 @@
       <c r="AE819" s="4"/>
       <c r="AF819" s="4"/>
     </row>
-    <row r="820" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
@@ -31820,7 +31834,7 @@
       <c r="AE820" s="4"/>
       <c r="AF820" s="4"/>
     </row>
-    <row r="821" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
@@ -31853,7 +31867,7 @@
       <c r="AE821" s="4"/>
       <c r="AF821" s="4"/>
     </row>
-    <row r="822" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
@@ -31886,7 +31900,7 @@
       <c r="AE822" s="4"/>
       <c r="AF822" s="4"/>
     </row>
-    <row r="823" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
@@ -31919,7 +31933,7 @@
       <c r="AE823" s="4"/>
       <c r="AF823" s="4"/>
     </row>
-    <row r="824" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
@@ -31952,7 +31966,7 @@
       <c r="AE824" s="4"/>
       <c r="AF824" s="4"/>
     </row>
-    <row r="825" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
@@ -31985,7 +31999,7 @@
       <c r="AE825" s="4"/>
       <c r="AF825" s="4"/>
     </row>
-    <row r="826" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
@@ -32018,7 +32032,7 @@
       <c r="AE826" s="4"/>
       <c r="AF826" s="4"/>
     </row>
-    <row r="827" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
@@ -32051,7 +32065,7 @@
       <c r="AE827" s="4"/>
       <c r="AF827" s="4"/>
     </row>
-    <row r="828" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
@@ -32084,7 +32098,7 @@
       <c r="AE828" s="4"/>
       <c r="AF828" s="4"/>
     </row>
-    <row r="829" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
@@ -32117,7 +32131,7 @@
       <c r="AE829" s="4"/>
       <c r="AF829" s="4"/>
     </row>
-    <row r="830" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
@@ -32150,7 +32164,7 @@
       <c r="AE830" s="4"/>
       <c r="AF830" s="4"/>
     </row>
-    <row r="831" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
@@ -32183,7 +32197,7 @@
       <c r="AE831" s="4"/>
       <c r="AF831" s="4"/>
     </row>
-    <row r="832" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
@@ -32216,7 +32230,7 @@
       <c r="AE832" s="4"/>
       <c r="AF832" s="4"/>
     </row>
-    <row r="833" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
@@ -32249,7 +32263,7 @@
       <c r="AE833" s="4"/>
       <c r="AF833" s="4"/>
     </row>
-    <row r="834" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
@@ -32282,7 +32296,7 @@
       <c r="AE834" s="4"/>
       <c r="AF834" s="4"/>
     </row>
-    <row r="835" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
@@ -32315,7 +32329,7 @@
       <c r="AE835" s="4"/>
       <c r="AF835" s="4"/>
     </row>
-    <row r="836" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
@@ -32348,7 +32362,7 @@
       <c r="AE836" s="4"/>
       <c r="AF836" s="4"/>
     </row>
-    <row r="837" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
@@ -32381,7 +32395,7 @@
       <c r="AE837" s="4"/>
       <c r="AF837" s="4"/>
     </row>
-    <row r="838" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
@@ -32414,7 +32428,7 @@
       <c r="AE838" s="4"/>
       <c r="AF838" s="4"/>
     </row>
-    <row r="839" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
@@ -32447,7 +32461,7 @@
       <c r="AE839" s="4"/>
       <c r="AF839" s="4"/>
     </row>
-    <row r="840" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
@@ -32480,7 +32494,7 @@
       <c r="AE840" s="4"/>
       <c r="AF840" s="4"/>
     </row>
-    <row r="841" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
@@ -32513,7 +32527,7 @@
       <c r="AE841" s="4"/>
       <c r="AF841" s="4"/>
     </row>
-    <row r="842" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
@@ -32546,7 +32560,7 @@
       <c r="AE842" s="4"/>
       <c r="AF842" s="4"/>
     </row>
-    <row r="843" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
@@ -32579,7 +32593,7 @@
       <c r="AE843" s="4"/>
       <c r="AF843" s="4"/>
     </row>
-    <row r="844" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
@@ -32612,7 +32626,7 @@
       <c r="AE844" s="4"/>
       <c r="AF844" s="4"/>
     </row>
-    <row r="845" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
@@ -32645,7 +32659,7 @@
       <c r="AE845" s="4"/>
       <c r="AF845" s="4"/>
     </row>
-    <row r="846" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
@@ -32678,7 +32692,7 @@
       <c r="AE846" s="4"/>
       <c r="AF846" s="4"/>
     </row>
-    <row r="847" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
@@ -32711,7 +32725,7 @@
       <c r="AE847" s="4"/>
       <c r="AF847" s="4"/>
     </row>
-    <row r="848" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
@@ -32744,7 +32758,7 @@
       <c r="AE848" s="4"/>
       <c r="AF848" s="4"/>
     </row>
-    <row r="849" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
@@ -32777,7 +32791,7 @@
       <c r="AE849" s="4"/>
       <c r="AF849" s="4"/>
     </row>
-    <row r="850" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
@@ -32810,7 +32824,7 @@
       <c r="AE850" s="4"/>
       <c r="AF850" s="4"/>
     </row>
-    <row r="851" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
@@ -32843,7 +32857,7 @@
       <c r="AE851" s="4"/>
       <c r="AF851" s="4"/>
     </row>
-    <row r="852" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
@@ -32876,7 +32890,7 @@
       <c r="AE852" s="4"/>
       <c r="AF852" s="4"/>
     </row>
-    <row r="853" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
@@ -32909,7 +32923,7 @@
       <c r="AE853" s="4"/>
       <c r="AF853" s="4"/>
     </row>
-    <row r="854" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
@@ -32942,7 +32956,7 @@
       <c r="AE854" s="4"/>
       <c r="AF854" s="4"/>
     </row>
-    <row r="855" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
@@ -32975,7 +32989,7 @@
       <c r="AE855" s="4"/>
       <c r="AF855" s="4"/>
     </row>
-    <row r="856" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
@@ -33008,7 +33022,7 @@
       <c r="AE856" s="4"/>
       <c r="AF856" s="4"/>
     </row>
-    <row r="857" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
@@ -33041,7 +33055,7 @@
       <c r="AE857" s="4"/>
       <c r="AF857" s="4"/>
     </row>
-    <row r="858" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
@@ -33074,7 +33088,7 @@
       <c r="AE858" s="4"/>
       <c r="AF858" s="4"/>
     </row>
-    <row r="859" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
@@ -33107,7 +33121,7 @@
       <c r="AE859" s="4"/>
       <c r="AF859" s="4"/>
     </row>
-    <row r="860" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
@@ -33140,7 +33154,7 @@
       <c r="AE860" s="4"/>
       <c r="AF860" s="4"/>
     </row>
-    <row r="861" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
@@ -33173,7 +33187,7 @@
       <c r="AE861" s="4"/>
       <c r="AF861" s="4"/>
     </row>
-    <row r="862" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
@@ -33206,7 +33220,7 @@
       <c r="AE862" s="4"/>
       <c r="AF862" s="4"/>
     </row>
-    <row r="863" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
@@ -33239,7 +33253,7 @@
       <c r="AE863" s="4"/>
       <c r="AF863" s="4"/>
     </row>
-    <row r="864" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
@@ -33272,7 +33286,7 @@
       <c r="AE864" s="4"/>
       <c r="AF864" s="4"/>
     </row>
-    <row r="865" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
@@ -33305,7 +33319,7 @@
       <c r="AE865" s="4"/>
       <c r="AF865" s="4"/>
     </row>
-    <row r="866" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
@@ -33338,7 +33352,7 @@
       <c r="AE866" s="4"/>
       <c r="AF866" s="4"/>
     </row>
-    <row r="867" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
@@ -33371,7 +33385,7 @@
       <c r="AE867" s="4"/>
       <c r="AF867" s="4"/>
     </row>
-    <row r="868" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
@@ -33404,7 +33418,7 @@
       <c r="AE868" s="4"/>
       <c r="AF868" s="4"/>
     </row>
-    <row r="869" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
@@ -33437,7 +33451,7 @@
       <c r="AE869" s="4"/>
       <c r="AF869" s="4"/>
     </row>
-    <row r="870" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
@@ -33470,7 +33484,7 @@
       <c r="AE870" s="4"/>
       <c r="AF870" s="4"/>
     </row>
-    <row r="871" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
@@ -33503,7 +33517,7 @@
       <c r="AE871" s="4"/>
       <c r="AF871" s="4"/>
     </row>
-    <row r="872" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
@@ -33536,7 +33550,7 @@
       <c r="AE872" s="4"/>
       <c r="AF872" s="4"/>
     </row>
-    <row r="873" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
@@ -33569,7 +33583,7 @@
       <c r="AE873" s="4"/>
       <c r="AF873" s="4"/>
     </row>
-    <row r="874" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
@@ -33602,7 +33616,7 @@
       <c r="AE874" s="4"/>
       <c r="AF874" s="4"/>
     </row>
-    <row r="875" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
@@ -33635,7 +33649,7 @@
       <c r="AE875" s="4"/>
       <c r="AF875" s="4"/>
     </row>
-    <row r="876" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
@@ -33668,7 +33682,7 @@
       <c r="AE876" s="4"/>
       <c r="AF876" s="4"/>
     </row>
-    <row r="877" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
@@ -33701,7 +33715,7 @@
       <c r="AE877" s="4"/>
       <c r="AF877" s="4"/>
     </row>
-    <row r="878" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
@@ -33734,7 +33748,7 @@
       <c r="AE878" s="4"/>
       <c r="AF878" s="4"/>
     </row>
-    <row r="879" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
@@ -33767,7 +33781,7 @@
       <c r="AE879" s="4"/>
       <c r="AF879" s="4"/>
     </row>
-    <row r="880" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
@@ -33800,7 +33814,7 @@
       <c r="AE880" s="4"/>
       <c r="AF880" s="4"/>
     </row>
-    <row r="881" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
@@ -33833,7 +33847,7 @@
       <c r="AE881" s="4"/>
       <c r="AF881" s="4"/>
     </row>
-    <row r="882" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
@@ -33866,7 +33880,7 @@
       <c r="AE882" s="4"/>
       <c r="AF882" s="4"/>
     </row>
-    <row r="883" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
@@ -33899,7 +33913,7 @@
       <c r="AE883" s="4"/>
       <c r="AF883" s="4"/>
     </row>
-    <row r="884" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
@@ -33932,7 +33946,7 @@
       <c r="AE884" s="4"/>
       <c r="AF884" s="4"/>
     </row>
-    <row r="885" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
@@ -33965,7 +33979,7 @@
       <c r="AE885" s="4"/>
       <c r="AF885" s="4"/>
     </row>
-    <row r="886" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
@@ -33998,7 +34012,7 @@
       <c r="AE886" s="4"/>
       <c r="AF886" s="4"/>
     </row>
-    <row r="887" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
@@ -34031,7 +34045,7 @@
       <c r="AE887" s="4"/>
       <c r="AF887" s="4"/>
     </row>
-    <row r="888" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
@@ -34064,7 +34078,7 @@
       <c r="AE888" s="4"/>
       <c r="AF888" s="4"/>
     </row>
-    <row r="889" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
@@ -34097,7 +34111,7 @@
       <c r="AE889" s="4"/>
       <c r="AF889" s="4"/>
     </row>
-    <row r="890" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
@@ -34130,7 +34144,7 @@
       <c r="AE890" s="4"/>
       <c r="AF890" s="4"/>
     </row>
-    <row r="891" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
@@ -34163,7 +34177,7 @@
       <c r="AE891" s="4"/>
       <c r="AF891" s="4"/>
     </row>
-    <row r="892" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
@@ -34196,7 +34210,7 @@
       <c r="AE892" s="4"/>
       <c r="AF892" s="4"/>
     </row>
-    <row r="893" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
@@ -34229,7 +34243,7 @@
       <c r="AE893" s="4"/>
       <c r="AF893" s="4"/>
     </row>
-    <row r="894" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
@@ -34262,7 +34276,7 @@
       <c r="AE894" s="4"/>
       <c r="AF894" s="4"/>
     </row>
-    <row r="895" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
@@ -34295,7 +34309,7 @@
       <c r="AE895" s="4"/>
       <c r="AF895" s="4"/>
     </row>
-    <row r="896" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
@@ -34328,7 +34342,7 @@
       <c r="AE896" s="4"/>
       <c r="AF896" s="4"/>
     </row>
-    <row r="897" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
@@ -34361,7 +34375,7 @@
       <c r="AE897" s="4"/>
       <c r="AF897" s="4"/>
     </row>
-    <row r="898" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
@@ -34394,7 +34408,7 @@
       <c r="AE898" s="4"/>
       <c r="AF898" s="4"/>
     </row>
-    <row r="899" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
@@ -34427,7 +34441,7 @@
       <c r="AE899" s="4"/>
       <c r="AF899" s="4"/>
     </row>
-    <row r="900" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
@@ -34460,7 +34474,7 @@
       <c r="AE900" s="4"/>
       <c r="AF900" s="4"/>
     </row>
-    <row r="901" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
@@ -34493,7 +34507,7 @@
       <c r="AE901" s="4"/>
       <c r="AF901" s="4"/>
     </row>
-    <row r="902" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
@@ -34526,7 +34540,7 @@
       <c r="AE902" s="4"/>
       <c r="AF902" s="4"/>
     </row>
-    <row r="903" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
@@ -34559,7 +34573,7 @@
       <c r="AE903" s="4"/>
       <c r="AF903" s="4"/>
     </row>
-    <row r="904" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
@@ -34592,7 +34606,7 @@
       <c r="AE904" s="4"/>
       <c r="AF904" s="4"/>
     </row>
-    <row r="905" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
@@ -34625,7 +34639,7 @@
       <c r="AE905" s="4"/>
       <c r="AF905" s="4"/>
     </row>
-    <row r="906" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
@@ -34658,7 +34672,7 @@
       <c r="AE906" s="4"/>
       <c r="AF906" s="4"/>
     </row>
-    <row r="907" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
@@ -34691,7 +34705,7 @@
       <c r="AE907" s="4"/>
       <c r="AF907" s="4"/>
     </row>
-    <row r="908" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
@@ -34724,7 +34738,7 @@
       <c r="AE908" s="4"/>
       <c r="AF908" s="4"/>
     </row>
-    <row r="909" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
@@ -34757,7 +34771,7 @@
       <c r="AE909" s="4"/>
       <c r="AF909" s="4"/>
     </row>
-    <row r="910" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
@@ -34790,7 +34804,7 @@
       <c r="AE910" s="4"/>
       <c r="AF910" s="4"/>
     </row>
-    <row r="911" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
@@ -34823,7 +34837,7 @@
       <c r="AE911" s="4"/>
       <c r="AF911" s="4"/>
     </row>
-    <row r="912" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
@@ -34856,7 +34870,7 @@
       <c r="AE912" s="4"/>
       <c r="AF912" s="4"/>
     </row>
-    <row r="913" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
@@ -34889,7 +34903,7 @@
       <c r="AE913" s="4"/>
       <c r="AF913" s="4"/>
     </row>
-    <row r="914" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
@@ -34922,7 +34936,7 @@
       <c r="AE914" s="4"/>
       <c r="AF914" s="4"/>
     </row>
-    <row r="915" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
@@ -34955,7 +34969,7 @@
       <c r="AE915" s="4"/>
       <c r="AF915" s="4"/>
     </row>
-    <row r="916" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
@@ -34988,7 +35002,7 @@
       <c r="AE916" s="4"/>
       <c r="AF916" s="4"/>
     </row>
-    <row r="917" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
@@ -35021,7 +35035,7 @@
       <c r="AE917" s="4"/>
       <c r="AF917" s="4"/>
     </row>
-    <row r="918" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
@@ -35054,7 +35068,7 @@
       <c r="AE918" s="4"/>
       <c r="AF918" s="4"/>
     </row>
-    <row r="919" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
@@ -35087,7 +35101,7 @@
       <c r="AE919" s="4"/>
       <c r="AF919" s="4"/>
     </row>
-    <row r="920" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
@@ -35120,7 +35134,7 @@
       <c r="AE920" s="4"/>
       <c r="AF920" s="4"/>
     </row>
-    <row r="921" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
@@ -35153,7 +35167,7 @@
       <c r="AE921" s="4"/>
       <c r="AF921" s="4"/>
     </row>
-    <row r="922" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
@@ -35186,7 +35200,7 @@
       <c r="AE922" s="4"/>
       <c r="AF922" s="4"/>
     </row>
-    <row r="923" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
@@ -35219,7 +35233,7 @@
       <c r="AE923" s="4"/>
       <c r="AF923" s="4"/>
     </row>
-    <row r="924" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
@@ -35252,7 +35266,7 @@
       <c r="AE924" s="4"/>
       <c r="AF924" s="4"/>
     </row>
-    <row r="925" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
@@ -35285,7 +35299,7 @@
       <c r="AE925" s="4"/>
       <c r="AF925" s="4"/>
     </row>
-    <row r="926" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
@@ -35318,7 +35332,7 @@
       <c r="AE926" s="4"/>
       <c r="AF926" s="4"/>
     </row>
-    <row r="927" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
@@ -35351,7 +35365,7 @@
       <c r="AE927" s="4"/>
       <c r="AF927" s="4"/>
     </row>
-    <row r="928" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
@@ -35384,7 +35398,7 @@
       <c r="AE928" s="4"/>
       <c r="AF928" s="4"/>
     </row>
-    <row r="929" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
@@ -35417,7 +35431,7 @@
       <c r="AE929" s="4"/>
       <c r="AF929" s="4"/>
     </row>
-    <row r="930" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
@@ -35450,7 +35464,7 @@
       <c r="AE930" s="4"/>
       <c r="AF930" s="4"/>
     </row>
-    <row r="931" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
@@ -35483,7 +35497,7 @@
       <c r="AE931" s="4"/>
       <c r="AF931" s="4"/>
     </row>
-    <row r="932" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
@@ -35516,7 +35530,7 @@
       <c r="AE932" s="4"/>
       <c r="AF932" s="4"/>
     </row>
-    <row r="933" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
@@ -35549,7 +35563,7 @@
       <c r="AE933" s="4"/>
       <c r="AF933" s="4"/>
     </row>
-    <row r="934" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
@@ -35582,7 +35596,7 @@
       <c r="AE934" s="4"/>
       <c r="AF934" s="4"/>
     </row>
-    <row r="935" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
@@ -35615,7 +35629,7 @@
       <c r="AE935" s="4"/>
       <c r="AF935" s="4"/>
     </row>
-    <row r="936" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
@@ -35648,7 +35662,7 @@
       <c r="AE936" s="4"/>
       <c r="AF936" s="4"/>
     </row>
-    <row r="937" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="937" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
@@ -35681,7 +35695,7 @@
       <c r="AE937" s="4"/>
       <c r="AF937" s="4"/>
     </row>
-    <row r="938" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
@@ -35714,7 +35728,7 @@
       <c r="AE938" s="4"/>
       <c r="AF938" s="4"/>
     </row>
-    <row r="939" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="939" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
@@ -35747,7 +35761,7 @@
       <c r="AE939" s="4"/>
       <c r="AF939" s="4"/>
     </row>
-    <row r="940" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="940" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
@@ -35780,7 +35794,7 @@
       <c r="AE940" s="4"/>
       <c r="AF940" s="4"/>
     </row>
-    <row r="941" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="941" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
@@ -35813,7 +35827,7 @@
       <c r="AE941" s="4"/>
       <c r="AF941" s="4"/>
     </row>
-    <row r="942" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="942" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
@@ -35846,7 +35860,7 @@
       <c r="AE942" s="4"/>
       <c r="AF942" s="4"/>
     </row>
-    <row r="943" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="943" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
@@ -35879,7 +35893,7 @@
       <c r="AE943" s="4"/>
       <c r="AF943" s="4"/>
     </row>
-    <row r="944" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="944" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
@@ -35912,7 +35926,7 @@
       <c r="AE944" s="4"/>
       <c r="AF944" s="4"/>
     </row>
-    <row r="945" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="945" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
@@ -35945,7 +35959,7 @@
       <c r="AE945" s="4"/>
       <c r="AF945" s="4"/>
     </row>
-    <row r="946" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="946" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
@@ -35978,7 +35992,7 @@
       <c r="AE946" s="4"/>
       <c r="AF946" s="4"/>
     </row>
-    <row r="947" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="947" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
@@ -36011,7 +36025,7 @@
       <c r="AE947" s="4"/>
       <c r="AF947" s="4"/>
     </row>
-    <row r="948" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="948" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
@@ -36044,7 +36058,7 @@
       <c r="AE948" s="4"/>
       <c r="AF948" s="4"/>
     </row>
-    <row r="949" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="949" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
@@ -36077,7 +36091,7 @@
       <c r="AE949" s="4"/>
       <c r="AF949" s="4"/>
     </row>
-    <row r="950" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="950" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
@@ -36110,7 +36124,7 @@
       <c r="AE950" s="4"/>
       <c r="AF950" s="4"/>
     </row>
-    <row r="951" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="951" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
@@ -36143,7 +36157,7 @@
       <c r="AE951" s="4"/>
       <c r="AF951" s="4"/>
     </row>
-    <row r="952" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="952" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
@@ -36176,7 +36190,7 @@
       <c r="AE952" s="4"/>
       <c r="AF952" s="4"/>
     </row>
-    <row r="953" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="953" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
@@ -36209,7 +36223,7 @@
       <c r="AE953" s="4"/>
       <c r="AF953" s="4"/>
     </row>
-    <row r="954" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="954" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
@@ -36242,7 +36256,7 @@
       <c r="AE954" s="4"/>
       <c r="AF954" s="4"/>
     </row>
-    <row r="955" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="955" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
@@ -36275,7 +36289,7 @@
       <c r="AE955" s="4"/>
       <c r="AF955" s="4"/>
     </row>
-    <row r="956" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="956" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
@@ -36308,7 +36322,7 @@
       <c r="AE956" s="4"/>
       <c r="AF956" s="4"/>
     </row>
-    <row r="957" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="957" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
@@ -36341,7 +36355,7 @@
       <c r="AE957" s="4"/>
       <c r="AF957" s="4"/>
     </row>
-    <row r="958" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="958" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
@@ -36374,7 +36388,7 @@
       <c r="AE958" s="4"/>
       <c r="AF958" s="4"/>
     </row>
-    <row r="959" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="959" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
@@ -36407,7 +36421,7 @@
       <c r="AE959" s="4"/>
       <c r="AF959" s="4"/>
     </row>
-    <row r="960" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="960" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
@@ -36440,7 +36454,7 @@
       <c r="AE960" s="4"/>
       <c r="AF960" s="4"/>
     </row>
-    <row r="961" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="961" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
@@ -36473,7 +36487,7 @@
       <c r="AE961" s="4"/>
       <c r="AF961" s="4"/>
     </row>
-    <row r="962" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="962" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
@@ -36506,7 +36520,7 @@
       <c r="AE962" s="4"/>
       <c r="AF962" s="4"/>
     </row>
-    <row r="963" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="963" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
@@ -36539,7 +36553,7 @@
       <c r="AE963" s="4"/>
       <c r="AF963" s="4"/>
     </row>
-    <row r="964" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="964" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
@@ -36572,7 +36586,7 @@
       <c r="AE964" s="4"/>
       <c r="AF964" s="4"/>
     </row>
-    <row r="965" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="965" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
@@ -36605,7 +36619,7 @@
       <c r="AE965" s="4"/>
       <c r="AF965" s="4"/>
     </row>
-    <row r="966" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="966" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
@@ -36638,7 +36652,7 @@
       <c r="AE966" s="4"/>
       <c r="AF966" s="4"/>
     </row>
-    <row r="967" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="967" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
@@ -36671,7 +36685,7 @@
       <c r="AE967" s="4"/>
       <c r="AF967" s="4"/>
     </row>
-    <row r="968" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="968" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
@@ -36704,7 +36718,7 @@
       <c r="AE968" s="4"/>
       <c r="AF968" s="4"/>
     </row>
-    <row r="969" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="969" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
@@ -36737,7 +36751,7 @@
       <c r="AE969" s="4"/>
       <c r="AF969" s="4"/>
     </row>
-    <row r="970" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="970" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
@@ -36770,7 +36784,7 @@
       <c r="AE970" s="4"/>
       <c r="AF970" s="4"/>
     </row>
-    <row r="971" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="971" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
@@ -36803,7 +36817,7 @@
       <c r="AE971" s="4"/>
       <c r="AF971" s="4"/>
     </row>
-    <row r="972" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="972" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
@@ -36836,7 +36850,7 @@
       <c r="AE972" s="4"/>
       <c r="AF972" s="4"/>
     </row>
-    <row r="973" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="973" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
@@ -36869,7 +36883,7 @@
       <c r="AE973" s="4"/>
       <c r="AF973" s="4"/>
     </row>
-    <row r="974" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="974" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
@@ -36902,7 +36916,7 @@
       <c r="AE974" s="4"/>
       <c r="AF974" s="4"/>
     </row>
-    <row r="975" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="975" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
@@ -36935,7 +36949,7 @@
       <c r="AE975" s="4"/>
       <c r="AF975" s="4"/>
     </row>
-    <row r="976" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="976" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
@@ -36968,7 +36982,7 @@
       <c r="AE976" s="4"/>
       <c r="AF976" s="4"/>
     </row>
-    <row r="977" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="977" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
@@ -37001,7 +37015,7 @@
       <c r="AE977" s="4"/>
       <c r="AF977" s="4"/>
     </row>
-    <row r="978" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="978" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
@@ -37034,7 +37048,7 @@
       <c r="AE978" s="4"/>
       <c r="AF978" s="4"/>
     </row>
-    <row r="979" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="979" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
@@ -37067,7 +37081,7 @@
       <c r="AE979" s="4"/>
       <c r="AF979" s="4"/>
     </row>
-    <row r="980" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="980" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
@@ -37100,7 +37114,7 @@
       <c r="AE980" s="4"/>
       <c r="AF980" s="4"/>
     </row>
-    <row r="981" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="981" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
@@ -37133,7 +37147,7 @@
       <c r="AE981" s="4"/>
       <c r="AF981" s="4"/>
     </row>
-    <row r="982" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="982" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
@@ -37166,7 +37180,7 @@
       <c r="AE982" s="4"/>
       <c r="AF982" s="4"/>
     </row>
-    <row r="983" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="983" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
@@ -37199,7 +37213,7 @@
       <c r="AE983" s="4"/>
       <c r="AF983" s="4"/>
     </row>
-    <row r="984" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="984" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
@@ -37232,7 +37246,7 @@
       <c r="AE984" s="4"/>
       <c r="AF984" s="4"/>
     </row>
-    <row r="985" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="985" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
@@ -37265,7 +37279,7 @@
       <c r="AE985" s="4"/>
       <c r="AF985" s="4"/>
     </row>
-    <row r="986" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="986" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
@@ -37298,7 +37312,7 @@
       <c r="AE986" s="4"/>
       <c r="AF986" s="4"/>
     </row>
-    <row r="987" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="987" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
@@ -37331,7 +37345,7 @@
       <c r="AE987" s="4"/>
       <c r="AF987" s="4"/>
     </row>
-    <row r="988" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="988" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
@@ -37364,7 +37378,7 @@
       <c r="AE988" s="4"/>
       <c r="AF988" s="4"/>
     </row>
-    <row r="989" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="989" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
@@ -37397,7 +37411,7 @@
       <c r="AE989" s="4"/>
       <c r="AF989" s="4"/>
     </row>
-    <row r="990" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="990" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
@@ -37430,7 +37444,7 @@
       <c r="AE990" s="4"/>
       <c r="AF990" s="4"/>
     </row>
-    <row r="991" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="991" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
       <c r="D991" s="4"/>
@@ -37463,7 +37477,7 @@
       <c r="AE991" s="4"/>
       <c r="AF991" s="4"/>
     </row>
-    <row r="992" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="992" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
@@ -37496,7 +37510,7 @@
       <c r="AE992" s="4"/>
       <c r="AF992" s="4"/>
     </row>
-    <row r="993" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="993" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
@@ -37529,7 +37543,7 @@
       <c r="AE993" s="4"/>
       <c r="AF993" s="4"/>
     </row>
-    <row r="994" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="994" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
       <c r="D994" s="4"/>
@@ -37562,7 +37576,7 @@
       <c r="AE994" s="4"/>
       <c r="AF994" s="4"/>
     </row>
-    <row r="995" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="995" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
       <c r="D995" s="4"/>
@@ -37595,7 +37609,7 @@
       <c r="AE995" s="4"/>
       <c r="AF995" s="4"/>
     </row>
-    <row r="996" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="996" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
       <c r="D996" s="4"/>
@@ -37628,7 +37642,7 @@
       <c r="AE996" s="4"/>
       <c r="AF996" s="4"/>
     </row>
-    <row r="997" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="997" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
       <c r="D997" s="4"/>
@@ -37661,7 +37675,7 @@
       <c r="AE997" s="4"/>
       <c r="AF997" s="4"/>
     </row>
-    <row r="998" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="998" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
       <c r="D998" s="4"/>
@@ -37694,7 +37708,7 @@
       <c r="AE998" s="4"/>
       <c r="AF998" s="4"/>
     </row>
-    <row r="999" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="999" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
       <c r="D999" s="4"/>
@@ -37727,7 +37741,7 @@
       <c r="AE999" s="4"/>
       <c r="AF999" s="4"/>
     </row>
-    <row r="1000" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="1000" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
       <c r="D1000" s="4"/>
@@ -37760,7 +37774,7 @@
       <c r="AE1000" s="4"/>
       <c r="AF1000" s="4"/>
     </row>
-    <row r="1001" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="1001" spans="2:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1001" s="4"/>
       <c r="C1001" s="4"/>
       <c r="D1001" s="4"/>
@@ -37794,8 +37808,8 @@
       <c r="AF1001" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B27:AF1001 B6:D26 B1:AF5 F6:AF26">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="B6:D26 B1:AF5 B27:AF1001 F6:AF26">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
